--- a/CaseStudy/Export/Correlation_selectVAR_model2.xlsx
+++ b/CaseStudy/Export/Correlation_selectVAR_model2.xlsx
@@ -560,70 +560,70 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2613741872511379</v>
+        <v>-0.2854228459919279</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03826591131470169</v>
+        <v>0.03876588119624878</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09777299507959594</v>
+        <v>0.1031036205733099</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02220480102724827</v>
+        <v>0.0250676840370101</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1088676201038782</v>
+        <v>-0.1240683217221162</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1895810936890586</v>
+        <v>0.2015400208497252</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2072606631531617</v>
+        <v>0.2244892493389928</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1213679763111309</v>
+        <v>0.127729567213234</v>
       </c>
       <c r="K2" t="n">
-        <v>0.211666408614004</v>
+        <v>0.2335739591475389</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04049706527717261</v>
+        <v>0.04104506306654963</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1919584410004125</v>
+        <v>0.2134837274346923</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1206032368391984</v>
+        <v>0.1232799394662013</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.1842416189082415</v>
+        <v>-0.2211626770849119</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1300945134772488</v>
+        <v>-0.1342813671830736</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.046769652955711</v>
+        <v>0.05370476839399517</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03464571484151766</v>
+        <v>0.03663948474760154</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1146805211806993</v>
+        <v>-0.108249922874552</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.05919079404574295</v>
+        <v>-0.06455220261611155</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06730101119352876</v>
+        <v>0.08380594414087883</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.01551569662419383</v>
+        <v>-0.02677572435974179</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04194430982556492</v>
+        <v>0.04137257711003997</v>
       </c>
       <c r="X2" t="n">
-        <v>0.009077774734663854</v>
+        <v>0.01170716638941764</v>
       </c>
     </row>
     <row r="3">
@@ -633,73 +633,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2613741872511379</v>
+        <v>-0.2854228459919279</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1559660351560297</v>
+        <v>-0.1659442236438834</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1796071292183659</v>
+        <v>-0.1915984574506099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03098417289222782</v>
+        <v>0.03178008536421172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1187262536551963</v>
+        <v>0.133243164118091</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.149280744094289</v>
+        <v>-0.1588929993566435</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1307973750743515</v>
+        <v>-0.1359016179997423</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.09550922000396944</v>
+        <v>-0.09482163926037128</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1766808226391656</v>
+        <v>-0.1841377598445458</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02386428341473091</v>
+        <v>-0.01823123135068536</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1543186899775227</v>
+        <v>-0.1610312267027526</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.05829781582911565</v>
+        <v>-0.06471908231036332</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1964058819122693</v>
+        <v>0.2137294667945394</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2266618923461539</v>
+        <v>0.2404141307388282</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1518445271379984</v>
+        <v>-0.1647399506653904</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.01957369600956768</v>
+        <v>-0.009927045468401442</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1798556425000613</v>
+        <v>0.1857402266390834</v>
       </c>
       <c r="T3" t="n">
-        <v>0.009894265770181</v>
+        <v>0.01048213081496958</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.05462603873246027</v>
+        <v>-0.06123995584416253</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.05402322780444221</v>
+        <v>-0.050870085872</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.07051448806518942</v>
+        <v>-0.07113979528195961</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08131909814433705</v>
+        <v>0.08153572737599171</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03826591131470169</v>
+        <v>0.03876588119624878</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1559660351560297</v>
+        <v>-0.1659442236438834</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3801245321415768</v>
+        <v>0.3937092311458022</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1494342928057471</v>
+        <v>-0.1647710451171673</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06168200154372071</v>
+        <v>0.06749129753345906</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07993772743264251</v>
+        <v>0.08677317706123716</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08032987775263747</v>
+        <v>-0.08367488681719205</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.05328939267898505</v>
+        <v>-0.06399826795457395</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0628722175756183</v>
+        <v>0.0669541206619178</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.08956598745993853</v>
+        <v>-0.0910335862665632</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.05299627223105412</v>
+        <v>-0.0613281505858559</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1391655863608457</v>
+        <v>-0.142484839532165</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05095036638538867</v>
+        <v>0.0536351020726376</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.09818251549562126</v>
+        <v>-0.1108649630770487</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4989228884990197</v>
+        <v>0.516338991603269</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1015295855942827</v>
+        <v>-0.1089322791113146</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.09870648727883223</v>
+        <v>-0.09901520957341113</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0646831883080916</v>
+        <v>0.0735867004219814</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.0438599719748112</v>
+        <v>-0.04788222386583905</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1116778017247707</v>
+        <v>0.1230084554100962</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.03040421757534341</v>
+        <v>-0.03274846807870283</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.1410817724465155</v>
+        <v>-0.1495979406489653</v>
       </c>
     </row>
     <row r="5">
@@ -785,73 +785,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09777299507959594</v>
+        <v>0.1031036205733099</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1796071292183659</v>
+        <v>-0.1915984574506099</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3801245321415768</v>
+        <v>0.3937092311458022</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.008710594248054806</v>
+        <v>-0.01744445223407568</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.008930328543331638</v>
+        <v>-0.01110522927200638</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08317179402248924</v>
+        <v>0.09359933008622717</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04891058353235397</v>
+        <v>0.04884581038940236</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.06470433692602204</v>
+        <v>-0.06480089222744057</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2136146241128529</v>
+        <v>0.2183685993399895</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01030598575853526</v>
+        <v>-0.01106716854842715</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05438304758726529</v>
+        <v>0.05745204772809327</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1088025933540708</v>
+        <v>-0.1017707294568496</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09044149983492385</v>
+        <v>0.08547959274002565</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1355216775912837</v>
+        <v>-0.1396715866169315</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3663321283338236</v>
+        <v>0.3769693384788033</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.03137770211626694</v>
+        <v>-0.03178511420970341</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.09151497133706986</v>
+        <v>-0.09664702363980325</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04491772503144773</v>
+        <v>0.04811196699130712</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01790973421681677</v>
+        <v>0.01688105226224058</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09222560021428577</v>
+        <v>0.09573980675138695</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01295417369435222</v>
+        <v>0.0109430165515314</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1580091080243105</v>
+        <v>-0.1613721687741418</v>
       </c>
     </row>
     <row r="6">
@@ -861,73 +861,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02220480102724827</v>
+        <v>0.0250676840370101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03098417289222782</v>
+        <v>0.03178008536421172</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1494342928057471</v>
+        <v>-0.1647710451171673</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.008710594248054806</v>
+        <v>-0.01744445223407568</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0995312077728874</v>
+        <v>-0.1025703582654419</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.08533976733867699</v>
+        <v>-0.08882547027173551</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03529197707594159</v>
+        <v>0.03967748778025353</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1334985400358711</v>
+        <v>0.1433809049780108</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005772488239091462</v>
+        <v>0.01006404030103051</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06056029919851432</v>
+        <v>0.06650253986622781</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08053492027362805</v>
+        <v>0.08274365449228943</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2070699479970442</v>
+        <v>0.2116712719142603</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.143298985665255</v>
+        <v>-0.1602828742365804</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04223014973973765</v>
+        <v>0.04686897793799323</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1391881796606599</v>
+        <v>-0.1563366399626702</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08002474222801287</v>
+        <v>0.08150582366447642</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02121521249536581</v>
+        <v>0.02306022491483493</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.07467594811647711</v>
+        <v>-0.07774297094939014</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06245673853135884</v>
+        <v>0.06837757927492207</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2623308128500093</v>
+        <v>-0.2779357062449836</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.04326000622964665</v>
+        <v>-0.04252764104902889</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1685685125777832</v>
+        <v>0.1849532431283435</v>
       </c>
     </row>
     <row r="7">
@@ -937,73 +937,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1088676201038782</v>
+        <v>-0.1240683217221162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1187262536551963</v>
+        <v>0.133243164118091</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06168200154372071</v>
+        <v>0.06749129753345906</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.008930328543331638</v>
+        <v>-0.01110522927200638</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0995312077728874</v>
+        <v>-0.1025703582654419</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05497243604475093</v>
+        <v>-0.04955528768131017</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05345832607132962</v>
+        <v>-0.05948150968660529</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.08382916549752255</v>
+        <v>-0.08493555240859314</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.04167909057699427</v>
+        <v>-0.04870524949385754</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02790482365521111</v>
+        <v>0.01672970707055845</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1422797556147336</v>
+        <v>-0.1528584043154058</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2373779419912441</v>
+        <v>-0.2386848625694477</v>
       </c>
       <c r="O7" t="n">
-        <v>0.123707888288475</v>
+        <v>0.1362566916341267</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03524379957931763</v>
+        <v>0.04036997884390937</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04334149793730307</v>
+        <v>0.04955333063480253</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03657347087898533</v>
+        <v>0.03914221414788874</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05568693403478261</v>
+        <v>0.05948459823898868</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2017484985419869</v>
+        <v>0.2163664193155172</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005933685638566701</v>
+        <v>-0.001998790661104619</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002215999330083958</v>
+        <v>0.01072743307583247</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.152059544408901</v>
+        <v>-0.1566592073495101</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.01553511874992223</v>
+        <v>-0.02058144507498665</v>
       </c>
     </row>
     <row r="8">
@@ -1013,73 +1013,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1895810936890586</v>
+        <v>0.2015400208497252</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.149280744094289</v>
+        <v>-0.1588929993566435</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07993772743264251</v>
+        <v>0.08677317706123716</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08317179402248924</v>
+        <v>0.09359933008622717</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08533976733867699</v>
+        <v>-0.08882547027173551</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05497243604475093</v>
+        <v>-0.04955528768131017</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3842512845843191</v>
+        <v>0.3845128053578957</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.02554563720862481</v>
+        <v>-0.01851781681925864</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3621358804155261</v>
+        <v>0.3670388156609249</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003425655909041164</v>
+        <v>0.005383167161179466</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08189518825272107</v>
+        <v>0.09033857841294433</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0007451544209719762</v>
+        <v>-0.0002792881348068071</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.02681212156357128</v>
+        <v>-0.04049457658265278</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1872548741485933</v>
+        <v>-0.1919958065818631</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09177512660001441</v>
+        <v>0.09624459835032532</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.01698738821967882</v>
+        <v>-0.01492358163074485</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.1740809594711891</v>
+        <v>-0.1715391509211246</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0004138976282414919</v>
+        <v>0.004669191514804919</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03458417519062943</v>
+        <v>0.04132731441204203</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04359086573556677</v>
+        <v>0.03807358625458564</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.02609103079972855</v>
+        <v>-0.02671046812049865</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.02693123745069725</v>
+        <v>-0.0283806244469918</v>
       </c>
     </row>
     <row r="9">
@@ -1089,73 +1089,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2072606631531617</v>
+        <v>0.2244892493389928</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1307973750743515</v>
+        <v>-0.1359016179997423</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08032987775263747</v>
+        <v>-0.08367488681719205</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04891058353235397</v>
+        <v>0.04884581038940236</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03529197707594159</v>
+        <v>0.03967748778025353</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05345832607132962</v>
+        <v>-0.05948150968660529</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3842512845843191</v>
+        <v>0.3845128053578957</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04471408100310637</v>
+        <v>0.05342650259919801</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4077178795876447</v>
+        <v>0.4110876095477542</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07565817711261386</v>
+        <v>0.0819177116426527</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1634344730562101</v>
+        <v>0.174290094998102</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01654319828867293</v>
+        <v>0.01807801528670424</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.06781351798167799</v>
+        <v>-0.07889893462779807</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1629516308997407</v>
+        <v>-0.1685112394032622</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0594851572132337</v>
+        <v>-0.06432922574812154</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06999752373601131</v>
+        <v>0.07419310337784693</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.1217794916620374</v>
+        <v>-0.1234197914188628</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01097185433478597</v>
+        <v>0.01160106055080734</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07613035617463608</v>
+        <v>0.08432036723016692</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.01181862230218923</v>
+        <v>-0.0180122360040814</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01028778482917344</v>
+        <v>0.01440263580629536</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.02079193188306164</v>
+        <v>-0.01724922605509063</v>
       </c>
     </row>
     <row r="10">
@@ -1165,73 +1165,73 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1213679763111309</v>
+        <v>0.127729567213234</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.09550922000396944</v>
+        <v>-0.09482163926037128</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.05328939267898505</v>
+        <v>-0.06399826795457395</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.06470433692602204</v>
+        <v>-0.06480089222744057</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1334985400358711</v>
+        <v>0.1433809049780108</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08382916549752255</v>
+        <v>-0.08493555240859314</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.02554563720862481</v>
+        <v>-0.01851781681925864</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04471408100310637</v>
+        <v>0.05342650259919801</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.008621044323413091</v>
+        <v>0.02047199712390748</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04306908943608493</v>
+        <v>0.0483085480123429</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3278942844534734</v>
+        <v>0.3389168996468343</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1560227539443639</v>
+        <v>0.1592280812505129</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.3187620068476821</v>
+        <v>-0.324243374336253</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02461354787274885</v>
+        <v>0.02384017132183621</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.03795736023478147</v>
+        <v>-0.05220627135387298</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05953503606846742</v>
+        <v>0.05862524183523384</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0426938830812738</v>
+        <v>0.03897303022562307</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.07063915466380372</v>
+        <v>-0.07304035230077455</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04919912236742108</v>
+        <v>0.05257813613734239</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.150143949375462</v>
+        <v>-0.1584801244511929</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05545329118083969</v>
+        <v>0.04897913315473101</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1338084643563329</v>
+        <v>0.1466866568400325</v>
       </c>
     </row>
     <row r="11">
@@ -1241,73 +1241,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.211666408614004</v>
+        <v>0.2335739591475389</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1766808226391656</v>
+        <v>-0.1841377598445458</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0628722175756183</v>
+        <v>0.0669541206619178</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2136146241128529</v>
+        <v>0.2183685993399895</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005772488239091462</v>
+        <v>0.01006404030103051</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04167909057699427</v>
+        <v>-0.04870524949385754</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3621358804155261</v>
+        <v>0.3670388156609249</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4077178795876447</v>
+        <v>0.4110876095477542</v>
       </c>
       <c r="J11" t="n">
-        <v>0.008621044323413091</v>
+        <v>0.02047199712390748</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04436691583772915</v>
+        <v>0.04660949562149549</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1551811704318916</v>
+        <v>0.1668272179865355</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.03775756467584889</v>
+        <v>-0.03234129421564737</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0292501780768186</v>
+        <v>-0.03789591040141408</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1619132550157047</v>
+        <v>-0.1734339124309828</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.07188582699004439</v>
+        <v>0.0760657367823839</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0319579098819212</v>
+        <v>0.03624412638198279</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.1296275651167962</v>
+        <v>-0.1375542232090765</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02101352564031844</v>
+        <v>0.01943064813602756</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05561499114018223</v>
+        <v>0.06490096721177657</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04412364218618351</v>
+        <v>0.04040243838788284</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01166111382892712</v>
+        <v>0.02113975537609423</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.08154426940111079</v>
+        <v>-0.08553931658610751</v>
       </c>
     </row>
     <row r="12">
@@ -1317,73 +1317,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04049706527717261</v>
+        <v>0.04104506306654963</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02386428341473091</v>
+        <v>-0.01823123135068536</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.08956598745993853</v>
+        <v>-0.0910335862665632</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01030598575853526</v>
+        <v>-0.01106716854842715</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06056029919851432</v>
+        <v>0.06650253986622781</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02790482365521111</v>
+        <v>0.01672970707055845</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003425655909041164</v>
+        <v>0.005383167161179466</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07565817711261386</v>
+        <v>0.0819177116426527</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04306908943608493</v>
+        <v>0.0483085480123429</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04436691583772915</v>
+        <v>0.04660949562149549</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06550927898655953</v>
+        <v>0.07559323031462536</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.005079298905244318</v>
+        <v>-0.001959905721662743</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.02274981646897335</v>
+        <v>-0.02891601454621705</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.009648306055654077</v>
+        <v>0.004138345620604079</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0820638309441791</v>
+        <v>-0.08360957169362965</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2794534732969091</v>
+        <v>0.2769890893549909</v>
       </c>
       <c r="S12" t="n">
-        <v>0.002225764276003633</v>
+        <v>0.005493622971748061</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0316462429840172</v>
+        <v>0.0282435271655872</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3250598881110193</v>
+        <v>0.3171485346167666</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.03461662881935668</v>
+        <v>-0.03988356159728796</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01036749404558755</v>
+        <v>-0.01023285931755934</v>
       </c>
       <c r="X12" t="n">
-        <v>0.009743554397771796</v>
+        <v>0.01462849170605041</v>
       </c>
     </row>
     <row r="13">
@@ -1393,73 +1393,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1919584410004125</v>
+        <v>0.2134837274346923</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1543186899775227</v>
+        <v>-0.1610312267027526</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.05299627223105412</v>
+        <v>-0.0613281505858559</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05438304758726529</v>
+        <v>0.05745204772809327</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08053492027362805</v>
+        <v>0.08274365449228943</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1422797556147336</v>
+        <v>-0.1528584043154058</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08189518825272107</v>
+        <v>0.09033857841294433</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1634344730562101</v>
+        <v>0.174290094998102</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3278942844534734</v>
+        <v>0.3389168996468343</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1551811704318916</v>
+        <v>0.1668272179865355</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06550927898655953</v>
+        <v>0.07559323031462536</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.117220669409272</v>
+        <v>0.1206655757628114</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.2450321228668677</v>
+        <v>-0.2661341157651904</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04003841043358602</v>
+        <v>-0.04765287573683512</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.05370695110486109</v>
+        <v>-0.05465711834592554</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04707915736871377</v>
+        <v>0.04578199743103132</v>
       </c>
       <c r="S13" t="n">
-        <v>0.00436881812981924</v>
+        <v>0.002483263557514506</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.04996217891036568</v>
+        <v>-0.05720384552394039</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07023366380481455</v>
+        <v>0.07505107035809126</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.01510255501801061</v>
+        <v>-0.02532082955913875</v>
       </c>
       <c r="W13" t="n">
-        <v>0.09616543852347606</v>
+        <v>0.100842758956742</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.01139026167706811</v>
+        <v>-0.005912817915373824</v>
       </c>
     </row>
     <row r="14">
@@ -1469,73 +1469,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1206032368391984</v>
+        <v>0.1232799394662013</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05829781582911565</v>
+        <v>-0.06471908231036332</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1391655863608457</v>
+        <v>-0.142484839532165</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1088025933540708</v>
+        <v>-0.1017707294568496</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2070699479970442</v>
+        <v>0.2116712719142603</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2373779419912441</v>
+        <v>-0.2386848625694477</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007451544209719762</v>
+        <v>-0.0002792881348068071</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01654319828867293</v>
+        <v>0.01807801528670424</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1560227539443639</v>
+        <v>0.1592280812505129</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.03775756467584889</v>
+        <v>-0.03234129421564737</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.005079298905244318</v>
+        <v>-0.001959905721662743</v>
       </c>
       <c r="M14" t="n">
-        <v>0.117220669409272</v>
+        <v>0.1206655757628114</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1772427490206966</v>
+        <v>-0.1885515900137799</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04719533452593867</v>
+        <v>0.04922211831063138</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.09916551992775477</v>
+        <v>-0.103698342794782</v>
       </c>
       <c r="R14" t="n">
-        <v>0.002025662040509422</v>
+        <v>0.001158733198858472</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03672087989077264</v>
+        <v>0.03767108432824334</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.1288635154256913</v>
+        <v>-0.1315965272369784</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.002291146748313986</v>
+        <v>0.001188264917783325</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.1749774143829428</v>
+        <v>-0.179934843894821</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02441097112982862</v>
+        <v>0.01928345916355061</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2701107199482542</v>
+        <v>0.2774237764659984</v>
       </c>
     </row>
     <row r="15">
@@ -1545,73 +1545,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1842416189082415</v>
+        <v>-0.2211626770849119</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1964058819122693</v>
+        <v>0.2137294667945394</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05095036638538867</v>
+        <v>0.0536351020726376</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09044149983492385</v>
+        <v>0.08547959274002565</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.143298985665255</v>
+        <v>-0.1602828742365804</v>
       </c>
       <c r="G15" t="n">
-        <v>0.123707888288475</v>
+        <v>0.1362566916341267</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.02681212156357128</v>
+        <v>-0.04049457658265278</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.06781351798167799</v>
+        <v>-0.07889893462779807</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3187620068476821</v>
+        <v>-0.324243374336253</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0292501780768186</v>
+        <v>-0.03789591040141408</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.02274981646897335</v>
+        <v>-0.02891601454621705</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.2450321228668677</v>
+        <v>-0.2661341157651904</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.1772427490206966</v>
+        <v>-0.1885515900137799</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02077487529936723</v>
+        <v>0.02956655358049631</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02714539005462132</v>
+        <v>0.03637625638365085</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.04205314209434068</v>
+        <v>-0.04523204088140949</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02907579258875354</v>
+        <v>0.02985138372821214</v>
       </c>
       <c r="T15" t="n">
-        <v>0.07221661490087973</v>
+        <v>0.07424054917440119</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.01861711597304545</v>
+        <v>-0.02442188641142188</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1747952333749756</v>
+        <v>0.1970722535658273</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.03042773127359897</v>
+        <v>-0.01723209823915177</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.150536574715924</v>
+        <v>-0.1640239568781148</v>
       </c>
     </row>
     <row r="16">
@@ -1621,73 +1621,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1300945134772488</v>
+        <v>-0.1342813671830736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2266618923461539</v>
+        <v>0.2404141307388282</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.09818251549562126</v>
+        <v>-0.1108649630770487</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1355216775912837</v>
+        <v>-0.1396715866169315</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04223014973973765</v>
+        <v>0.04686897793799323</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03524379957931763</v>
+        <v>0.04036997884390937</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1872548741485933</v>
+        <v>-0.1919958065818631</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1629516308997407</v>
+        <v>-0.1685112394032622</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02461354787274885</v>
+        <v>0.02384017132183621</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1619132550157047</v>
+        <v>-0.1734339124309828</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.009648306055654077</v>
+        <v>0.004138345620604079</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04003841043358602</v>
+        <v>-0.04765287573683512</v>
       </c>
       <c r="N16" t="n">
-        <v>0.04719533452593867</v>
+        <v>0.04922211831063138</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02077487529936723</v>
+        <v>0.02956655358049631</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.09811434603447015</v>
+        <v>-0.1100962586465691</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.001814099313018622</v>
+        <v>0.007222014700928866</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3754827340153135</v>
+        <v>0.3806254518602876</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.03512391998624535</v>
+        <v>-0.04302614111301012</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.03095896439604707</v>
+        <v>-0.03899381807571244</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.06153687060257206</v>
+        <v>-0.07509590136447311</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.02993514109936767</v>
+        <v>-0.04155875220409582</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1105345384251093</v>
+        <v>0.1281674556597141</v>
       </c>
     </row>
     <row r="17">
@@ -1697,73 +1697,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.046769652955711</v>
+        <v>0.05370476839399517</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1518445271379984</v>
+        <v>-0.1647399506653904</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4989228884990197</v>
+        <v>0.516338991603269</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3663321283338236</v>
+        <v>0.3769693384788033</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1391881796606599</v>
+        <v>-0.1563366399626702</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04334149793730307</v>
+        <v>0.04955333063480253</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09177512660001441</v>
+        <v>0.09624459835032532</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0594851572132337</v>
+        <v>-0.06432922574812154</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.03795736023478147</v>
+        <v>-0.05220627135387298</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07188582699004439</v>
+        <v>0.0760657367823839</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0820638309441791</v>
+        <v>-0.08360957169362965</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.05370695110486109</v>
+        <v>-0.05465711834592554</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.09916551992775477</v>
+        <v>-0.103698342794782</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02714539005462132</v>
+        <v>0.03637625638365085</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.09811434603447015</v>
+        <v>-0.1100962586465691</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.09013505981811294</v>
+        <v>-0.0949068552938693</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.08616948090109963</v>
+        <v>-0.08993315044937295</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03931201006023416</v>
+        <v>0.05137300356690729</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.04272451771657658</v>
+        <v>-0.04572244115179949</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0967157697193257</v>
+        <v>0.1054395755929265</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.01417765453112888</v>
+        <v>-0.01411537834941107</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.1084910534421335</v>
+        <v>-0.119148661185463</v>
       </c>
     </row>
     <row r="18">
@@ -1773,73 +1773,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03464571484151766</v>
+        <v>0.03663948474760154</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01957369600956768</v>
+        <v>-0.009927045468401442</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1015295855942827</v>
+        <v>-0.1089322791113146</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.03137770211626694</v>
+        <v>-0.03178511420970341</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08002474222801287</v>
+        <v>0.08150582366447642</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03657347087898533</v>
+        <v>0.03914221414788874</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01698738821967882</v>
+        <v>-0.01492358163074485</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06999752373601131</v>
+        <v>0.07419310337784693</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05953503606846742</v>
+        <v>0.05862524183523384</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0319579098819212</v>
+        <v>0.03624412638198279</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2794534732969091</v>
+        <v>0.2769890893549909</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04707915736871377</v>
+        <v>0.04578199743103132</v>
       </c>
       <c r="N18" t="n">
-        <v>0.002025662040509422</v>
+        <v>0.001158733198858472</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.04205314209434068</v>
+        <v>-0.04523204088140949</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.001814099313018622</v>
+        <v>0.007222014700928866</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.09013505981811294</v>
+        <v>-0.0949068552938693</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.006554269565418006</v>
+        <v>0.008672548460993615</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02205814403098811</v>
+        <v>0.02507139153947508</v>
       </c>
       <c r="U18" t="n">
-        <v>0.194480520678994</v>
+        <v>0.1948479959017639</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.05673034087779032</v>
+        <v>-0.06501755382351464</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.0307850304404163</v>
+        <v>-0.03042291402674992</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02623830875008261</v>
+        <v>0.03357945472237968</v>
       </c>
     </row>
     <row r="19">
@@ -1849,73 +1849,73 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1146805211806993</v>
+        <v>-0.108249922874552</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1798556425000613</v>
+        <v>0.1857402266390834</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.09870648727883223</v>
+        <v>-0.09901520957341113</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.09151497133706986</v>
+        <v>-0.09664702363980325</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02121521249536581</v>
+        <v>0.02306022491483493</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05568693403478261</v>
+        <v>0.05948459823898868</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1740809594711891</v>
+        <v>-0.1715391509211246</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1217794916620374</v>
+        <v>-0.1234197914188628</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0426938830812738</v>
+        <v>0.03897303022562307</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.1296275651167962</v>
+        <v>-0.1375542232090765</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002225764276003633</v>
+        <v>0.005493622971748061</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00436881812981924</v>
+        <v>0.002483263557514506</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03672087989077264</v>
+        <v>0.03767108432824334</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02907579258875354</v>
+        <v>0.02985138372821214</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3754827340153135</v>
+        <v>0.3806254518602876</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.08616948090109963</v>
+        <v>-0.08993315044937295</v>
       </c>
       <c r="R19" t="n">
-        <v>0.006554269565418006</v>
+        <v>0.008672548460993615</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.03387761798524707</v>
+        <v>-0.03439743460397043</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.04018834592882871</v>
+        <v>-0.03992561052943552</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.05678746595522823</v>
+        <v>-0.06425196938889512</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.03561279569119882</v>
+        <v>-0.04177486228621299</v>
       </c>
       <c r="X19" t="n">
-        <v>0.09907075904978119</v>
+        <v>0.1138778076145074</v>
       </c>
     </row>
     <row r="20">
@@ -1925,73 +1925,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.05919079404574295</v>
+        <v>-0.06455220261611155</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009894265770181</v>
+        <v>0.01048213081496958</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0646831883080916</v>
+        <v>0.0735867004219814</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04491772503144773</v>
+        <v>0.04811196699130712</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.07467594811647711</v>
+        <v>-0.07774297094939014</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2017484985419869</v>
+        <v>0.2163664193155172</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0004138976282414919</v>
+        <v>0.004669191514804919</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01097185433478597</v>
+        <v>0.01160106055080734</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.07063915466380372</v>
+        <v>-0.07304035230077455</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02101352564031844</v>
+        <v>0.01943064813602756</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0316462429840172</v>
+        <v>0.0282435271655872</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.04996217891036568</v>
+        <v>-0.05720384552394039</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1288635154256913</v>
+        <v>-0.1315965272369784</v>
       </c>
       <c r="O20" t="n">
-        <v>0.07221661490087973</v>
+        <v>0.07424054917440119</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.03512391998624535</v>
+        <v>-0.04302614111301012</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03931201006023416</v>
+        <v>0.05137300356690729</v>
       </c>
       <c r="R20" t="n">
-        <v>0.02205814403098811</v>
+        <v>0.02507139153947508</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.03387761798524707</v>
+        <v>-0.03439743460397043</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02440955952009851</v>
+        <v>0.01772476306817743</v>
       </c>
       <c r="V20" t="n">
-        <v>0.09653476242392138</v>
+        <v>0.09592645206485106</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.01558394189176731</v>
+        <v>-0.01631311760248445</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.1190618115071427</v>
+        <v>-0.1278918315237323</v>
       </c>
     </row>
     <row r="21">
@@ -2001,73 +2001,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06730101119352876</v>
+        <v>0.08380594414087883</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.05462603873246027</v>
+        <v>-0.06123995584416253</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0438599719748112</v>
+        <v>-0.04788222386583905</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01790973421681677</v>
+        <v>0.01688105226224058</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06245673853135884</v>
+        <v>0.06837757927492207</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005933685638566701</v>
+        <v>-0.001998790661104619</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03458417519062943</v>
+        <v>0.04132731441204203</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07613035617463608</v>
+        <v>0.08432036723016692</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04919912236742108</v>
+        <v>0.05257813613734239</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05561499114018223</v>
+        <v>0.06490096721177657</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3250598881110193</v>
+        <v>0.3171485346167666</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07023366380481455</v>
+        <v>0.07505107035809126</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.002291146748313986</v>
+        <v>0.001188264917783325</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.01861711597304545</v>
+        <v>-0.02442188641142188</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.03095896439604707</v>
+        <v>-0.03899381807571244</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.04272451771657658</v>
+        <v>-0.04572244115179949</v>
       </c>
       <c r="R21" t="n">
-        <v>0.194480520678994</v>
+        <v>0.1948479959017639</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.04018834592882871</v>
+        <v>-0.03992561052943552</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02440955952009851</v>
+        <v>0.01772476306817743</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.02537379722734501</v>
+        <v>-0.0306882798565359</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.02351009516704279</v>
+        <v>-0.02580622794139137</v>
       </c>
       <c r="X21" t="n">
-        <v>0.003329277306028636</v>
+        <v>0.006063364069331491</v>
       </c>
     </row>
     <row r="22">
@@ -2077,73 +2077,73 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01551569662419383</v>
+        <v>-0.02677572435974179</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.05402322780444221</v>
+        <v>-0.050870085872</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1116778017247707</v>
+        <v>0.1230084554100962</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09222560021428577</v>
+        <v>0.09573980675138695</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2623308128500093</v>
+        <v>-0.2779357062449836</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002215999330083958</v>
+        <v>0.01072743307583247</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04359086573556677</v>
+        <v>0.03807358625458564</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01181862230218923</v>
+        <v>-0.0180122360040814</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.150143949375462</v>
+        <v>-0.1584801244511929</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04412364218618351</v>
+        <v>0.04040243838788284</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03461662881935668</v>
+        <v>-0.03988356159728796</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.01510255501801061</v>
+        <v>-0.02532082955913875</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.1749774143829428</v>
+        <v>-0.179934843894821</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1747952333749756</v>
+        <v>0.1970722535658273</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.06153687060257206</v>
+        <v>-0.07509590136447311</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0967157697193257</v>
+        <v>0.1054395755929265</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.05673034087779032</v>
+        <v>-0.06501755382351464</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.05678746595522823</v>
+        <v>-0.06425196938889512</v>
       </c>
       <c r="T22" t="n">
-        <v>0.09653476242392138</v>
+        <v>0.09592645206485106</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.02537379722734501</v>
+        <v>-0.0306882798565359</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1098003419015926</v>
+        <v>0.1236080503189724</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.2956732663200876</v>
+        <v>-0.3039817849297376</v>
       </c>
     </row>
     <row r="23">
@@ -2153,73 +2153,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04194430982556492</v>
+        <v>0.04137257711003997</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.07051448806518942</v>
+        <v>-0.07113979528195961</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.03040421757534341</v>
+        <v>-0.03274846807870283</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01295417369435222</v>
+        <v>0.0109430165515314</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.04326000622964665</v>
+        <v>-0.04252764104902889</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.152059544408901</v>
+        <v>-0.1566592073495101</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.02609103079972855</v>
+        <v>-0.02671046812049865</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01028778482917344</v>
+        <v>0.01440263580629536</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05545329118083969</v>
+        <v>0.04897913315473101</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01166111382892712</v>
+        <v>0.02113975537609423</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.01036749404558755</v>
+        <v>-0.01023285931755934</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09616543852347606</v>
+        <v>0.100842758956742</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02441097112982862</v>
+        <v>0.01928345916355061</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.03042773127359897</v>
+        <v>-0.01723209823915177</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.02993514109936767</v>
+        <v>-0.04155875220409582</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.01417765453112888</v>
+        <v>-0.01411537834941107</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0307850304404163</v>
+        <v>-0.03042291402674992</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.03561279569119882</v>
+        <v>-0.04177486228621299</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.01558394189176731</v>
+        <v>-0.01631311760248445</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.02351009516704279</v>
+        <v>-0.02580622794139137</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1098003419015926</v>
+        <v>0.1236080503189724</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.08431403138846276</v>
+        <v>-0.09880866491964323</v>
       </c>
     </row>
     <row r="24">
@@ -2229,70 +2229,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.009077774734663854</v>
+        <v>0.01170716638941764</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08131909814433705</v>
+        <v>0.08153572737599171</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1410817724465155</v>
+        <v>-0.1495979406489653</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1580091080243105</v>
+        <v>-0.1613721687741418</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1685685125777832</v>
+        <v>0.1849532431283435</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.01553511874992223</v>
+        <v>-0.02058144507498665</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.02693123745069725</v>
+        <v>-0.0283806244469918</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02079193188306164</v>
+        <v>-0.01724922605509063</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1338084643563329</v>
+        <v>0.1466866568400325</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.08154426940111079</v>
+        <v>-0.08553931658610751</v>
       </c>
       <c r="L24" t="n">
-        <v>0.009743554397771796</v>
+        <v>0.01462849170605041</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.01139026167706811</v>
+        <v>-0.005912817915373824</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2701107199482542</v>
+        <v>0.2774237764659984</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.150536574715924</v>
+        <v>-0.1640239568781148</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1105345384251093</v>
+        <v>0.1281674556597141</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.1084910534421335</v>
+        <v>-0.119148661185463</v>
       </c>
       <c r="R24" t="n">
-        <v>0.02623830875008261</v>
+        <v>0.03357945472237968</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09907075904978119</v>
+        <v>0.1138778076145074</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.1190618115071427</v>
+        <v>-0.1278918315237323</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003329277306028636</v>
+        <v>0.006063364069331491</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.2956732663200876</v>
+        <v>-0.3039817849297376</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.08431403138846276</v>
+        <v>-0.09880866491964323</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>

--- a/CaseStudy/Export/Correlation_selectVAR_model2.xlsx
+++ b/CaseStudy/Export/Correlation_selectVAR_model2.xlsx
@@ -560,70 +560,70 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2854228459919279</v>
+        <v>-0.2797727314316131</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03876588119624878</v>
+        <v>0.0392082211262275</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1031036205733099</v>
+        <v>0.1005488534606225</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0250676840370101</v>
+        <v>0.0297466427418578</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1240683217221162</v>
+        <v>-0.1190286884053835</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2015400208497252</v>
+        <v>0.2026558843928797</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2244892493389928</v>
+        <v>0.2245508156386252</v>
       </c>
       <c r="J2" t="n">
-        <v>0.127729567213234</v>
+        <v>0.1262112354393794</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2335739591475389</v>
+        <v>0.2313157084733515</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04104506306654963</v>
+        <v>0.04756003197657575</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2134837274346923</v>
+        <v>0.2102919811249218</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1232799394662013</v>
+        <v>0.122611130067018</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2211626770849119</v>
+        <v>-0.2207422494819953</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1342813671830736</v>
+        <v>-0.1375464709496865</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05370476839399517</v>
+        <v>0.05176435782627458</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03663948474760154</v>
+        <v>0.03710956173119227</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.108249922874552</v>
+        <v>-0.1159204596047715</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.06455220261611155</v>
+        <v>-0.06275024351192807</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08380594414087883</v>
+        <v>0.08545419880612644</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.02677572435974179</v>
+        <v>-0.02310008747152687</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04137257711003997</v>
+        <v>0.04383115353128249</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01170716638941764</v>
+        <v>0.007939740162889689</v>
       </c>
     </row>
     <row r="3">
@@ -633,73 +633,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2854228459919279</v>
+        <v>-0.2797727314316131</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1659442236438834</v>
+        <v>-0.1625239993632729</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1915984574506099</v>
+        <v>-0.184468558049125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03178008536421172</v>
+        <v>0.03034932294482378</v>
       </c>
       <c r="G3" t="n">
-        <v>0.133243164118091</v>
+        <v>0.1252628789284959</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1588929993566435</v>
+        <v>-0.1605040288970766</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1359016179997423</v>
+        <v>-0.1376283739016654</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.09482163926037128</v>
+        <v>-0.09995119463291788</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1841377598445458</v>
+        <v>-0.1871904666735482</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.01823123135068536</v>
+        <v>-0.02396617107337842</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1610312267027526</v>
+        <v>-0.1648579111215907</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.06471908231036332</v>
+        <v>-0.06084151847845858</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2137294667945394</v>
+        <v>0.2183327761228078</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2404141307388282</v>
+        <v>0.2427483138624487</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1647399506653904</v>
+        <v>-0.1596361618078241</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.009927045468401442</v>
+        <v>-0.0150318740522163</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1857402266390834</v>
+        <v>0.1861236112966637</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01048213081496958</v>
+        <v>0.01124583701627893</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.06123995584416253</v>
+        <v>-0.06298133404770276</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.050870085872</v>
+        <v>-0.05455505983836755</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.07113979528195961</v>
+        <v>-0.07105061138148776</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08153572737599171</v>
+        <v>0.08587227291144571</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03876588119624878</v>
+        <v>0.0392082211262275</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1659442236438834</v>
+        <v>-0.1625239993632729</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3937092311458022</v>
+        <v>0.388060363178423</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1647710451171673</v>
+        <v>-0.1652764414883613</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06749129753345906</v>
+        <v>0.07155001752140763</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08677317706123716</v>
+        <v>0.08318169954040049</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08367488681719205</v>
+        <v>-0.08214961853016278</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.06399826795457395</v>
+        <v>-0.05450870907588182</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0669541206619178</v>
+        <v>0.0692160254660913</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0910335862665632</v>
+        <v>-0.09511914312626064</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0613281505858559</v>
+        <v>-0.05692938624942371</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.142484839532165</v>
+        <v>-0.1480642479747007</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0536351020726376</v>
+        <v>0.05218228190943378</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1108649630770487</v>
+        <v>-0.1067363692665227</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.516338991603269</v>
+        <v>0.5195342058528954</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1089322791113146</v>
+        <v>-0.1084739934421452</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.09901520957341113</v>
+        <v>-0.09984426050203649</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0735867004219814</v>
+        <v>0.06957685788091371</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.04788222386583905</v>
+        <v>-0.04909681797112567</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1230084554100962</v>
+        <v>0.1229351664332261</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.03274846807870283</v>
+        <v>-0.04045223618609573</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.1495979406489653</v>
+        <v>-0.1535429869349732</v>
       </c>
     </row>
     <row r="5">
@@ -785,73 +785,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1031036205733099</v>
+        <v>0.1005488534606225</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1915984574506099</v>
+        <v>-0.184468558049125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3937092311458022</v>
+        <v>0.388060363178423</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01744445223407568</v>
+        <v>-0.01561196977740413</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01110522927200638</v>
+        <v>-0.006412528821463706</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09359933008622717</v>
+        <v>0.08659293549323746</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04884581038940236</v>
+        <v>0.05051133748102973</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.06480089222744057</v>
+        <v>-0.06250040393662488</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2183685993399895</v>
+        <v>0.2182433561807272</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01106716854842715</v>
+        <v>-0.01309862978560269</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05745204772809327</v>
+        <v>0.05323699183314209</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1017707294568496</v>
+        <v>-0.1106596109239732</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08547959274002565</v>
+        <v>0.08832317013525137</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1396715866169315</v>
+        <v>-0.139062661330083</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3769693384788033</v>
+        <v>0.3735904057892383</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.03178511420970341</v>
+        <v>-0.03530782072759256</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.09664702363980325</v>
+        <v>-0.09302582620160428</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04811196699130712</v>
+        <v>0.04582077083093221</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01688105226224058</v>
+        <v>0.0180645915071961</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09573980675138695</v>
+        <v>0.09801898391865273</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0109430165515314</v>
+        <v>0.01139988938051311</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1613721687741418</v>
+        <v>-0.1657350554243046</v>
       </c>
     </row>
     <row r="6">
@@ -861,73 +861,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0250676840370101</v>
+        <v>0.0297466427418578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03178008536421172</v>
+        <v>0.03034932294482378</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1647710451171673</v>
+        <v>-0.1652764414883613</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01744445223407568</v>
+        <v>-0.01561196977740413</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1025703582654419</v>
+        <v>-0.107106122654923</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.08882547027173551</v>
+        <v>-0.08532197024002931</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03967748778025353</v>
+        <v>0.04068859902460688</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1433809049780108</v>
+        <v>0.1379330680931256</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01006404030103051</v>
+        <v>0.007578785007851523</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06650253986622781</v>
+        <v>0.06542619238545337</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08274365449228943</v>
+        <v>0.08322374240379227</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2116712719142603</v>
+        <v>0.2123100299950188</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1602828742365804</v>
+        <v>-0.1571983413998661</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04686897793799323</v>
+        <v>0.04313813038796596</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1563366399626702</v>
+        <v>-0.1524330778905541</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08150582366447642</v>
+        <v>0.08196076282604776</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02306022491483493</v>
+        <v>0.02236382664780971</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.07774297094939014</v>
+        <v>-0.08231104678970404</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06837757927492207</v>
+        <v>0.06584459088322181</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2779357062449836</v>
+        <v>-0.2751239234336399</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.04252764104902889</v>
+        <v>-0.0431582182206994</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1849532431283435</v>
+        <v>0.1797298776755977</v>
       </c>
     </row>
     <row r="7">
@@ -937,73 +937,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1240683217221162</v>
+        <v>-0.1190286884053835</v>
       </c>
       <c r="C7" t="n">
-        <v>0.133243164118091</v>
+        <v>0.1252628789284959</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06749129753345906</v>
+        <v>0.07155001752140763</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01110522927200638</v>
+        <v>-0.006412528821463706</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1025703582654419</v>
+        <v>-0.107106122654923</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04955528768131017</v>
+        <v>-0.0593406423198977</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05948150968660529</v>
+        <v>-0.05961043288644535</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.08493555240859314</v>
+        <v>-0.08777297298871735</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.04870524949385754</v>
+        <v>-0.04903835550798816</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01672970707055845</v>
+        <v>0.02459278767408066</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1528584043154058</v>
+        <v>-0.1531035461420593</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2386848625694477</v>
+        <v>-0.2414084925065061</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1362566916341267</v>
+        <v>0.1380343086571285</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04036997884390937</v>
+        <v>0.04082888771833498</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04955333063480253</v>
+        <v>0.05050445067887077</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03914221414788874</v>
+        <v>0.03672068689980113</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05948459823898868</v>
+        <v>0.05652767820231158</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2163664193155172</v>
+        <v>0.2108007077911593</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.001998790661104619</v>
+        <v>-0.0003779851587903482</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01072743307583247</v>
+        <v>0.007827052947800506</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1566592073495101</v>
+        <v>-0.1627897385092042</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.02058144507498665</v>
+        <v>-0.02273158211910532</v>
       </c>
     </row>
     <row r="8">
@@ -1013,73 +1013,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2015400208497252</v>
+        <v>0.2026558843928797</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1588929993566435</v>
+        <v>-0.1605040288970766</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08677317706123716</v>
+        <v>0.08318169954040049</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09359933008622717</v>
+        <v>0.08659293549323746</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08882547027173551</v>
+        <v>-0.08532197024002931</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04955528768131017</v>
+        <v>-0.0593406423198977</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3845128053578957</v>
+        <v>0.3858390944176823</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.01851781681925864</v>
+        <v>-0.02128189587790422</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3670388156609249</v>
+        <v>0.364851863487179</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005383167161179466</v>
+        <v>0.005796626042708256</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09033857841294433</v>
+        <v>0.08983812570135813</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0002792881348068071</v>
+        <v>0.002313369359746511</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.04049457658265278</v>
+        <v>-0.04188566482089544</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1919958065818631</v>
+        <v>-0.1939715910740801</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09624459835032532</v>
+        <v>0.09396031763861029</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.01492358163074485</v>
+        <v>-0.01770810519939788</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.1715391509211246</v>
+        <v>-0.1783286594669804</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004669191514804919</v>
+        <v>0.0008141811015932068</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04132731441204203</v>
+        <v>0.04133583348929708</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03807358625458564</v>
+        <v>0.04488902142332702</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.02671046812049865</v>
+        <v>-0.02498507430795349</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.0283806244469918</v>
+        <v>-0.03046516221179131</v>
       </c>
     </row>
     <row r="9">
@@ -1089,73 +1089,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2244892493389928</v>
+        <v>0.2245508156386252</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1359016179997423</v>
+        <v>-0.1376283739016654</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08367488681719205</v>
+        <v>-0.08214961853016278</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04884581038940236</v>
+        <v>0.05051133748102973</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03967748778025353</v>
+        <v>0.04068859902460688</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05948150968660529</v>
+        <v>-0.05961043288644535</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3845128053578957</v>
+        <v>0.3858390944176823</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05342650259919801</v>
+        <v>0.04791123610156781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4110876095477542</v>
+        <v>0.4108511136444567</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0819177116426527</v>
+        <v>0.07859606468777559</v>
       </c>
       <c r="M9" t="n">
-        <v>0.174290094998102</v>
+        <v>0.1685384507000073</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01807801528670424</v>
+        <v>0.0181289095526884</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.07889893462779807</v>
+        <v>-0.08118912521291972</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1685112394032622</v>
+        <v>-0.1711130421645394</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.06432922574812154</v>
+        <v>-0.06169314717365956</v>
       </c>
       <c r="R9" t="n">
-        <v>0.07419310337784693</v>
+        <v>0.07235793016948676</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.1234197914188628</v>
+        <v>-0.1255200713617254</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01160106055080734</v>
+        <v>0.01061002045127811</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08432036723016692</v>
+        <v>0.08530090565676016</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.0180122360040814</v>
+        <v>-0.01271782715406218</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01440263580629536</v>
+        <v>0.01516295350650049</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.01724922605509063</v>
+        <v>-0.02340234609153131</v>
       </c>
     </row>
     <row r="10">
@@ -1165,73 +1165,73 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.127729567213234</v>
+        <v>0.1262112354393794</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.09482163926037128</v>
+        <v>-0.09995119463291788</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.06399826795457395</v>
+        <v>-0.05450870907588182</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.06480089222744057</v>
+        <v>-0.06250040393662488</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1433809049780108</v>
+        <v>0.1379330680931256</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08493555240859314</v>
+        <v>-0.08777297298871735</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01851781681925864</v>
+        <v>-0.02128189587790422</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05342650259919801</v>
+        <v>0.04791123610156781</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02047199712390748</v>
+        <v>0.01300292436572547</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0483085480123429</v>
+        <v>0.0468984687024172</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3389168996468343</v>
+        <v>0.3321985850645596</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1592280812505129</v>
+        <v>0.1581061620943013</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.324243374336253</v>
+        <v>-0.3254839312614994</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02384017132183621</v>
+        <v>0.02379014056509399</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.05220627135387298</v>
+        <v>-0.04030548155315947</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05862524183523384</v>
+        <v>0.06261811386177125</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03897303022562307</v>
+        <v>0.04143848178682435</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.07304035230077455</v>
+        <v>-0.07548968808212364</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05257813613734239</v>
+        <v>0.04969361470733356</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.1584801244511929</v>
+        <v>-0.1577074545228274</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04897913315473101</v>
+        <v>0.05198085699941064</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1466866568400325</v>
+        <v>0.1393915103169893</v>
       </c>
     </row>
     <row r="11">
@@ -1241,73 +1241,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2335739591475389</v>
+        <v>0.2313157084733515</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1841377598445458</v>
+        <v>-0.1871904666735482</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0669541206619178</v>
+        <v>0.0692160254660913</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2183685993399895</v>
+        <v>0.2182433561807272</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01006404030103051</v>
+        <v>0.007578785007851523</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04870524949385754</v>
+        <v>-0.04903835550798816</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3670388156609249</v>
+        <v>0.364851863487179</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4110876095477542</v>
+        <v>0.4108511136444567</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02047199712390748</v>
+        <v>0.01300292436572547</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04660949562149549</v>
+        <v>0.04487267688995762</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1668272179865355</v>
+        <v>0.1590349781298675</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.03234129421564737</v>
+        <v>-0.03668130912945175</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.03789591040141408</v>
+        <v>-0.03719534781059104</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1734339124309828</v>
+        <v>-0.1759587325517744</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0760657367823839</v>
+        <v>0.07909752354315083</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03624412638198279</v>
+        <v>0.03514313443629059</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.1375542232090765</v>
+        <v>-0.1376065889884829</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01943064813602756</v>
+        <v>0.01910854071077695</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06490096721177657</v>
+        <v>0.06448934116011781</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04040243838788284</v>
+        <v>0.04573955042364094</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02113975537609423</v>
+        <v>0.01795574181478529</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.08553931658610751</v>
+        <v>-0.08828270293360987</v>
       </c>
     </row>
     <row r="12">
@@ -1317,73 +1317,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04104506306654963</v>
+        <v>0.04756003197657575</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01823123135068536</v>
+        <v>-0.02396617107337842</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0910335862665632</v>
+        <v>-0.09511914312626064</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01106716854842715</v>
+        <v>-0.01309862978560269</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06650253986622781</v>
+        <v>0.06542619238545337</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01672970707055845</v>
+        <v>0.02459278767408066</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005383167161179466</v>
+        <v>0.005796626042708256</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0819177116426527</v>
+        <v>0.07859606468777559</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0483085480123429</v>
+        <v>0.0468984687024172</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04660949562149549</v>
+        <v>0.04487267688995762</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.07559323031462536</v>
+        <v>0.06949037328675783</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.001959905721662743</v>
+        <v>-0.002696940318514913</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.02891601454621705</v>
+        <v>-0.02846602186209999</v>
       </c>
       <c r="P12" t="n">
-        <v>0.004138345620604079</v>
+        <v>-0.001568939690182536</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.08360957169362965</v>
+        <v>-0.08542509621379524</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2769890893549909</v>
+        <v>0.282621215814249</v>
       </c>
       <c r="S12" t="n">
-        <v>0.005493622971748061</v>
+        <v>0.005160206983568499</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0282435271655872</v>
+        <v>0.02915887716481748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3171485346167666</v>
+        <v>0.3214906772268871</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.03988356159728796</v>
+        <v>-0.0383889184678746</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01023285931755934</v>
+        <v>-0.01168549542734058</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01462849170605041</v>
+        <v>0.009776451250786314</v>
       </c>
     </row>
     <row r="13">
@@ -1393,73 +1393,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2134837274346923</v>
+        <v>0.2102919811249218</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1610312267027526</v>
+        <v>-0.1648579111215907</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0613281505858559</v>
+        <v>-0.05692938624942371</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05745204772809327</v>
+        <v>0.05323699183314209</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08274365449228943</v>
+        <v>0.08322374240379227</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1528584043154058</v>
+        <v>-0.1531035461420593</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09033857841294433</v>
+        <v>0.08983812570135813</v>
       </c>
       <c r="I13" t="n">
-        <v>0.174290094998102</v>
+        <v>0.1685384507000073</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3389168996468343</v>
+        <v>0.3321985850645596</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1668272179865355</v>
+        <v>0.1590349781298675</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07559323031462536</v>
+        <v>0.06949037328675783</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1206655757628114</v>
+        <v>0.1203791872264821</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.2661341157651904</v>
+        <v>-0.2678155709048775</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04765287573683512</v>
+        <v>-0.04622412181742819</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.05465711834592554</v>
+        <v>-0.0553165447510057</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04578199743103132</v>
+        <v>0.05023013538045241</v>
       </c>
       <c r="S13" t="n">
-        <v>0.002483263557514506</v>
+        <v>-0.0009726741935630947</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.05720384552394039</v>
+        <v>-0.05876590724207749</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07505107035809126</v>
+        <v>0.07623800893332408</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.02532082955913875</v>
+        <v>-0.02162910901546531</v>
       </c>
       <c r="W13" t="n">
-        <v>0.100842758956742</v>
+        <v>0.1007360365083079</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.005912817915373824</v>
+        <v>-0.007930273265069404</v>
       </c>
     </row>
     <row r="14">
@@ -1469,73 +1469,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1232799394662013</v>
+        <v>0.122611130067018</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06471908231036332</v>
+        <v>-0.06084151847845858</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.142484839532165</v>
+        <v>-0.1480642479747007</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1017707294568496</v>
+        <v>-0.1106596109239732</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2116712719142603</v>
+        <v>0.2123100299950188</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2386848625694477</v>
+        <v>-0.2414084925065061</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0002792881348068071</v>
+        <v>0.002313369359746511</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01807801528670424</v>
+        <v>0.0181289095526884</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1592280812505129</v>
+        <v>0.1581061620943013</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.03234129421564737</v>
+        <v>-0.03668130912945175</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.001959905721662743</v>
+        <v>-0.002696940318514913</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1206655757628114</v>
+        <v>0.1203791872264821</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1885515900137799</v>
+        <v>-0.1868294938898063</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04922211831063138</v>
+        <v>0.04775404509345622</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.103698342794782</v>
+        <v>-0.1035072310202461</v>
       </c>
       <c r="R14" t="n">
-        <v>0.001158733198858472</v>
+        <v>0.002367353861596822</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03767108432824334</v>
+        <v>0.03701548313673066</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.1315965272369784</v>
+        <v>-0.1330917800585823</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001188264917783325</v>
+        <v>0.003235686739289063</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.179934843894821</v>
+        <v>-0.1820342848792459</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01928345916355061</v>
+        <v>0.02381734373197563</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2774237764659984</v>
+        <v>0.2786310469845365</v>
       </c>
     </row>
     <row r="15">
@@ -1545,73 +1545,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2211626770849119</v>
+        <v>-0.2207422494819953</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2137294667945394</v>
+        <v>0.2183327761228078</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0536351020726376</v>
+        <v>0.05218228190943378</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08547959274002565</v>
+        <v>0.08832317013525137</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1602828742365804</v>
+        <v>-0.1571983413998661</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1362566916341267</v>
+        <v>0.1380343086571285</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.04049457658265278</v>
+        <v>-0.04188566482089544</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.07889893462779807</v>
+        <v>-0.08118912521291972</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.324243374336253</v>
+        <v>-0.3254839312614994</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.03789591040141408</v>
+        <v>-0.03719534781059104</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.02891601454621705</v>
+        <v>-0.02846602186209999</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.2661341157651904</v>
+        <v>-0.2678155709048775</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.1885515900137799</v>
+        <v>-0.1868294938898063</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02956655358049631</v>
+        <v>0.02888763899785843</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03637625638365085</v>
+        <v>0.03260580593903081</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.04523204088140949</v>
+        <v>-0.04625887435022447</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02985138372821214</v>
+        <v>0.03502554273171483</v>
       </c>
       <c r="T15" t="n">
-        <v>0.07424054917440119</v>
+        <v>0.07793639563597106</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.02442188641142188</v>
+        <v>-0.02549869646704869</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1970722535658273</v>
+        <v>0.1938915715453577</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.01723209823915177</v>
+        <v>-0.02758302607874383</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.1640239568781148</v>
+        <v>-0.1588490757641834</v>
       </c>
     </row>
     <row r="16">
@@ -1621,73 +1621,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1342813671830736</v>
+        <v>-0.1375464709496865</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2404141307388282</v>
+        <v>0.2427483138624487</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1108649630770487</v>
+        <v>-0.1067363692665227</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1396715866169315</v>
+        <v>-0.139062661330083</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04686897793799323</v>
+        <v>0.04313813038796596</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04036997884390937</v>
+        <v>0.04082888771833498</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1919958065818631</v>
+        <v>-0.1939715910740801</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1685112394032622</v>
+        <v>-0.1711130421645394</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02384017132183621</v>
+        <v>0.02379014056509399</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1734339124309828</v>
+        <v>-0.1759587325517744</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004138345620604079</v>
+        <v>-0.001568939690182536</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04765287573683512</v>
+        <v>-0.04622412181742819</v>
       </c>
       <c r="N16" t="n">
-        <v>0.04922211831063138</v>
+        <v>0.04775404509345622</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02956655358049631</v>
+        <v>0.02888763899785843</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.1100962586465691</v>
+        <v>-0.1088731746243381</v>
       </c>
       <c r="R16" t="n">
-        <v>0.007222014700928866</v>
+        <v>0.005203738704819443</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3806254518602876</v>
+        <v>0.3792943787465995</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.04302614111301012</v>
+        <v>-0.03736941766819275</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.03899381807571244</v>
+        <v>-0.03749427716573196</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.07509590136447311</v>
+        <v>-0.07072663486603732</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.04155875220409582</v>
+        <v>-0.03742007536318528</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1281674556597141</v>
+        <v>0.1271916454228323</v>
       </c>
     </row>
     <row r="17">
@@ -1697,73 +1697,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05370476839399517</v>
+        <v>0.05176435782627458</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1647399506653904</v>
+        <v>-0.1596361618078241</v>
       </c>
       <c r="D17" t="n">
-        <v>0.516338991603269</v>
+        <v>0.5195342058528954</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3769693384788033</v>
+        <v>0.3735904057892383</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1563366399626702</v>
+        <v>-0.1524330778905541</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04955333063480253</v>
+        <v>0.05050445067887077</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09624459835032532</v>
+        <v>0.09396031763861029</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.06432922574812154</v>
+        <v>-0.06169314717365956</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.05220627135387298</v>
+        <v>-0.04030548155315947</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0760657367823839</v>
+        <v>0.07909752354315083</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.08360957169362965</v>
+        <v>-0.08542509621379524</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.05465711834592554</v>
+        <v>-0.0553165447510057</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.103698342794782</v>
+        <v>-0.1035072310202461</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03637625638365085</v>
+        <v>0.03260580593903081</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.1100962586465691</v>
+        <v>-0.1088731746243381</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0949068552938693</v>
+        <v>-0.0966960427134694</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.08993315044937295</v>
+        <v>-0.0893448261098609</v>
       </c>
       <c r="T17" t="n">
-        <v>0.05137300356690729</v>
+        <v>0.04150453290124697</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.04572244115179949</v>
+        <v>-0.04568729013246205</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1054395755929265</v>
+        <v>0.1051393112083464</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.01411537834941107</v>
+        <v>-0.01816317813946628</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.119148661185463</v>
+        <v>-0.1245972999285731</v>
       </c>
     </row>
     <row r="18">
@@ -1773,73 +1773,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03663948474760154</v>
+        <v>0.03710956173119227</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.009927045468401442</v>
+        <v>-0.0150318740522163</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1089322791113146</v>
+        <v>-0.1084739934421452</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.03178511420970341</v>
+        <v>-0.03530782072759256</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08150582366447642</v>
+        <v>0.08196076282604776</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03914221414788874</v>
+        <v>0.03672068689980113</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01492358163074485</v>
+        <v>-0.01770810519939788</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07419310337784693</v>
+        <v>0.07235793016948676</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05862524183523384</v>
+        <v>0.06261811386177125</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03624412638198279</v>
+        <v>0.03514313443629059</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2769890893549909</v>
+        <v>0.282621215814249</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04578199743103132</v>
+        <v>0.05023013538045241</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001158733198858472</v>
+        <v>0.002367353861596822</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.04523204088140949</v>
+        <v>-0.04625887435022447</v>
       </c>
       <c r="P18" t="n">
-        <v>0.007222014700928866</v>
+        <v>0.005203738704819443</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.0949068552938693</v>
+        <v>-0.0966960427134694</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.008672548460993615</v>
+        <v>0.01117507189100399</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02507139153947508</v>
+        <v>0.02368123063622353</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1948479959017639</v>
+        <v>0.1950832816402315</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.06501755382351464</v>
+        <v>-0.06444475401936108</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.03042291402674992</v>
+        <v>-0.03324652121601532</v>
       </c>
       <c r="X18" t="n">
-        <v>0.03357945472237968</v>
+        <v>0.02932986310085989</v>
       </c>
     </row>
     <row r="19">
@@ -1849,73 +1849,73 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.108249922874552</v>
+        <v>-0.1159204596047715</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1857402266390834</v>
+        <v>0.1861236112966637</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.09901520957341113</v>
+        <v>-0.09984426050203649</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.09664702363980325</v>
+        <v>-0.09302582620160428</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02306022491483493</v>
+        <v>0.02236382664780971</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05948459823898868</v>
+        <v>0.05652767820231158</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1715391509211246</v>
+        <v>-0.1783286594669804</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1234197914188628</v>
+        <v>-0.1255200713617254</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03897303022562307</v>
+        <v>0.04143848178682435</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.1375542232090765</v>
+        <v>-0.1376065889884829</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005493622971748061</v>
+        <v>0.005160206983568499</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002483263557514506</v>
+        <v>-0.0009726741935630947</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03767108432824334</v>
+        <v>0.03701548313673066</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02985138372821214</v>
+        <v>0.03502554273171483</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3806254518602876</v>
+        <v>0.3792943787465995</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.08993315044937295</v>
+        <v>-0.0893448261098609</v>
       </c>
       <c r="R19" t="n">
-        <v>0.008672548460993615</v>
+        <v>0.01117507189100399</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.03439743460397043</v>
+        <v>-0.03446394460306818</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.03992561052943552</v>
+        <v>-0.0431447077341092</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.06425196938889512</v>
+        <v>-0.06242609611702888</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.04177486228621299</v>
+        <v>-0.03663605425886324</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1138778076145074</v>
+        <v>0.1066682453496896</v>
       </c>
     </row>
     <row r="20">
@@ -1925,73 +1925,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.06455220261611155</v>
+        <v>-0.06275024351192807</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01048213081496958</v>
+        <v>0.01124583701627893</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0735867004219814</v>
+        <v>0.06957685788091371</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04811196699130712</v>
+        <v>0.04582077083093221</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.07774297094939014</v>
+        <v>-0.08231104678970404</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2163664193155172</v>
+        <v>0.2108007077911593</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004669191514804919</v>
+        <v>0.0008141811015932068</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01160106055080734</v>
+        <v>0.01061002045127811</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.07304035230077455</v>
+        <v>-0.07548968808212364</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01943064813602756</v>
+        <v>0.01910854071077695</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0282435271655872</v>
+        <v>0.02915887716481748</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.05720384552394039</v>
+        <v>-0.05876590724207749</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1315965272369784</v>
+        <v>-0.1330917800585823</v>
       </c>
       <c r="O20" t="n">
-        <v>0.07424054917440119</v>
+        <v>0.07793639563597106</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.04302614111301012</v>
+        <v>-0.03736941766819275</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05137300356690729</v>
+        <v>0.04150453290124697</v>
       </c>
       <c r="R20" t="n">
-        <v>0.02507139153947508</v>
+        <v>0.02368123063622353</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.03439743460397043</v>
+        <v>-0.03446394460306818</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01772476306817743</v>
+        <v>0.02039099663717534</v>
       </c>
       <c r="V20" t="n">
-        <v>0.09592645206485106</v>
+        <v>0.1030333644515077</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.01631311760248445</v>
+        <v>-0.01795485689383921</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.1278918315237323</v>
+        <v>-0.1270814290086028</v>
       </c>
     </row>
     <row r="21">
@@ -2001,73 +2001,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08380594414087883</v>
+        <v>0.08545419880612644</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06123995584416253</v>
+        <v>-0.06298133404770276</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.04788222386583905</v>
+        <v>-0.04909681797112567</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01688105226224058</v>
+        <v>0.0180645915071961</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06837757927492207</v>
+        <v>0.06584459088322181</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.001998790661104619</v>
+        <v>-0.0003779851587903482</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04132731441204203</v>
+        <v>0.04133583348929708</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08432036723016692</v>
+        <v>0.08530090565676016</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05257813613734239</v>
+        <v>0.04969361470733356</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06490096721177657</v>
+        <v>0.06448934116011781</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3171485346167666</v>
+        <v>0.3214906772268871</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07505107035809126</v>
+        <v>0.07623800893332408</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001188264917783325</v>
+        <v>0.003235686739289063</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.02442188641142188</v>
+        <v>-0.02549869646704869</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.03899381807571244</v>
+        <v>-0.03749427716573196</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.04572244115179949</v>
+        <v>-0.04568729013246205</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1948479959017639</v>
+        <v>0.1950832816402315</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.03992561052943552</v>
+        <v>-0.0431447077341092</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01772476306817743</v>
+        <v>0.02039099663717534</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.0306882798565359</v>
+        <v>-0.02877729142517745</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.02580622794139137</v>
+        <v>-0.02401081643653902</v>
       </c>
       <c r="X21" t="n">
-        <v>0.006063364069331491</v>
+        <v>0.003520691276448376</v>
       </c>
     </row>
     <row r="22">
@@ -2077,73 +2077,73 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02677572435974179</v>
+        <v>-0.02310008747152687</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.050870085872</v>
+        <v>-0.05455505983836755</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1230084554100962</v>
+        <v>0.1229351664332261</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09573980675138695</v>
+        <v>0.09801898391865273</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2779357062449836</v>
+        <v>-0.2751239234336399</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01072743307583247</v>
+        <v>0.007827052947800506</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03807358625458564</v>
+        <v>0.04488902142332702</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0180122360040814</v>
+        <v>-0.01271782715406218</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.1584801244511929</v>
+        <v>-0.1577074545228274</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04040243838788284</v>
+        <v>0.04573955042364094</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03988356159728796</v>
+        <v>-0.0383889184678746</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.02532082955913875</v>
+        <v>-0.02162910901546531</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.179934843894821</v>
+        <v>-0.1820342848792459</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1970722535658273</v>
+        <v>0.1938915715453577</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.07509590136447311</v>
+        <v>-0.07072663486603732</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1054395755929265</v>
+        <v>0.1051393112083464</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.06501755382351464</v>
+        <v>-0.06444475401936108</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.06425196938889512</v>
+        <v>-0.06242609611702888</v>
       </c>
       <c r="T22" t="n">
-        <v>0.09592645206485106</v>
+        <v>0.1030333644515077</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.0306882798565359</v>
+        <v>-0.02877729142517745</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1236080503189724</v>
+        <v>0.1209861082827491</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.3039817849297376</v>
+        <v>-0.3062534593909333</v>
       </c>
     </row>
     <row r="23">
@@ -2153,73 +2153,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04137257711003997</v>
+        <v>0.04383115353128249</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.07113979528195961</v>
+        <v>-0.07105061138148776</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.03274846807870283</v>
+        <v>-0.04045223618609573</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0109430165515314</v>
+        <v>0.01139988938051311</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.04252764104902889</v>
+        <v>-0.0431582182206994</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1566592073495101</v>
+        <v>-0.1627897385092042</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.02671046812049865</v>
+        <v>-0.02498507430795349</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01440263580629536</v>
+        <v>0.01516295350650049</v>
       </c>
       <c r="J23" t="n">
-        <v>0.04897913315473101</v>
+        <v>0.05198085699941064</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02113975537609423</v>
+        <v>0.01795574181478529</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.01023285931755934</v>
+        <v>-0.01168549542734058</v>
       </c>
       <c r="M23" t="n">
-        <v>0.100842758956742</v>
+        <v>0.1007360365083079</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01928345916355061</v>
+        <v>0.02381734373197563</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.01723209823915177</v>
+        <v>-0.02758302607874383</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.04155875220409582</v>
+        <v>-0.03742007536318528</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.01411537834941107</v>
+        <v>-0.01816317813946628</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.03042291402674992</v>
+        <v>-0.03324652121601532</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.04177486228621299</v>
+        <v>-0.03663605425886324</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.01631311760248445</v>
+        <v>-0.01795485689383921</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.02580622794139137</v>
+        <v>-0.02401081643653902</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1236080503189724</v>
+        <v>0.1209861082827491</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.09880866491964323</v>
+        <v>-0.09371238801955036</v>
       </c>
     </row>
     <row r="24">
@@ -2229,70 +2229,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01170716638941764</v>
+        <v>0.007939740162889689</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08153572737599171</v>
+        <v>0.08587227291144571</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1495979406489653</v>
+        <v>-0.1535429869349732</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1613721687741418</v>
+        <v>-0.1657350554243046</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1849532431283435</v>
+        <v>0.1797298776755977</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02058144507498665</v>
+        <v>-0.02273158211910532</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0283806244469918</v>
+        <v>-0.03046516221179131</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.01724922605509063</v>
+        <v>-0.02340234609153131</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1466866568400325</v>
+        <v>0.1393915103169893</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.08553931658610751</v>
+        <v>-0.08828270293360987</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01462849170605041</v>
+        <v>0.009776451250786314</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.005912817915373824</v>
+        <v>-0.007930273265069404</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2774237764659984</v>
+        <v>0.2786310469845365</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.1640239568781148</v>
+        <v>-0.1588490757641834</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1281674556597141</v>
+        <v>0.1271916454228323</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.119148661185463</v>
+        <v>-0.1245972999285731</v>
       </c>
       <c r="R24" t="n">
-        <v>0.03357945472237968</v>
+        <v>0.02932986310085989</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1138778076145074</v>
+        <v>0.1066682453496896</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.1278918315237323</v>
+        <v>-0.1270814290086028</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006063364069331491</v>
+        <v>0.003520691276448376</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.3039817849297376</v>
+        <v>-0.3062534593909333</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.09880866491964323</v>
+        <v>-0.09371238801955036</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>

--- a/CaseStudy/Export/Correlation_selectVAR_model2.xlsx
+++ b/CaseStudy/Export/Correlation_selectVAR_model2.xlsx
@@ -560,70 +560,70 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2797727314316131</v>
+        <v>-0.2797727314316117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0392082211262275</v>
+        <v>0.03920822112622766</v>
       </c>
       <c r="E2" t="n">
         <v>0.1005488534606225</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0297466427418578</v>
+        <v>0.02974664274185791</v>
       </c>
       <c r="G2" t="n">
         <v>-0.1190286884053835</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2026558843928797</v>
+        <v>0.202655884392881</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2245508156386252</v>
+        <v>0.224550815638626</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1262112354393794</v>
+        <v>0.1262112354393788</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2313157084733515</v>
+        <v>0.2313157084733493</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04756003197657575</v>
+        <v>0.04756003197657607</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2102919811249218</v>
+        <v>0.2102919811249216</v>
       </c>
       <c r="N2" t="n">
-        <v>0.122611130067018</v>
+        <v>0.1226111300670176</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2207422494819953</v>
+        <v>-0.2207422494819943</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1375464709496865</v>
+        <v>-0.1375464709496862</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05176435782627458</v>
+        <v>0.05176435782627468</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03710956173119227</v>
+        <v>0.03710956173119224</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1159204596047715</v>
+        <v>-0.1159204596047714</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.06275024351192807</v>
+        <v>-0.06275024351192823</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08545419880612644</v>
+        <v>0.08545419880612527</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.02310008747152687</v>
+        <v>-0.02310008747152674</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04383115353128249</v>
+        <v>0.04383115353128227</v>
       </c>
       <c r="X2" t="n">
-        <v>0.007939740162889689</v>
+        <v>0.007939740162889642</v>
       </c>
     </row>
     <row r="3">
@@ -633,73 +633,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2797727314316131</v>
+        <v>-0.2797727314316117</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1625239993632729</v>
+        <v>-0.1625239993632733</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.184468558049125</v>
+        <v>-0.1844685580491262</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03034932294482378</v>
+        <v>0.03034932294482364</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1252628789284959</v>
+        <v>0.1252628789284969</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1605040288970766</v>
+        <v>-0.1605040288970776</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1376283739016654</v>
+        <v>-0.1376283739016656</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.09995119463291788</v>
+        <v>-0.09995119463291893</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1871904666735482</v>
+        <v>-0.1871904666735476</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02396617107337842</v>
+        <v>-0.02396617107337827</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1648579111215907</v>
+        <v>-0.164857911121591</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.06084151847845858</v>
+        <v>-0.06084151847845793</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2183327761228078</v>
+        <v>0.2183327761228087</v>
       </c>
       <c r="P3" t="n">
         <v>0.2427483138624487</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1596361618078241</v>
+        <v>-0.1596361618078227</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0150318740522163</v>
+        <v>-0.01503187405221633</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1861236112966637</v>
+        <v>0.1861236112966645</v>
       </c>
       <c r="T3" t="n">
         <v>0.01124583701627893</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.06298133404770276</v>
+        <v>-0.06298133404770245</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.05455505983836755</v>
+        <v>-0.05455505983836772</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.07105061138148776</v>
+        <v>-0.07105061138148779</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08587227291144571</v>
+        <v>0.08587227291144699</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0392082211262275</v>
+        <v>0.03920822112622766</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1625239993632729</v>
+        <v>-0.1625239993632733</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.388060363178423</v>
+        <v>0.3880603631784229</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1652764414883613</v>
+        <v>-0.165276441488361</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07155001752140763</v>
+        <v>0.07155001752140766</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08318169954040049</v>
+        <v>0.08318169954040036</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08214961853016278</v>
+        <v>-0.08214961853016275</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.05450870907588182</v>
+        <v>-0.05450870907588181</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0692160254660913</v>
+        <v>0.06921602546609031</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.09511914312626064</v>
+        <v>-0.09511914312626174</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.05692938624942371</v>
+        <v>-0.05692938624942344</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1480642479747007</v>
+        <v>-0.1480642479746999</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05218228190943378</v>
+        <v>0.05218228190943365</v>
       </c>
       <c r="P4" t="n">
         <v>-0.1067363692665227</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5195342058528954</v>
+        <v>0.5195342058528897</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1084739934421452</v>
+        <v>-0.1084739934421449</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.09984426050203649</v>
+        <v>-0.09984426050203463</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06957685788091371</v>
+        <v>0.06957685788091363</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.04909681797112567</v>
+        <v>-0.04909681797112521</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1229351664332261</v>
+        <v>0.1229351664332254</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.04045223618609573</v>
+        <v>-0.0404522361860957</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.1535429869349732</v>
+        <v>-0.1535429869349723</v>
       </c>
     </row>
     <row r="5">
@@ -788,70 +788,70 @@
         <v>0.1005488534606225</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.184468558049125</v>
+        <v>-0.1844685580491262</v>
       </c>
       <c r="D5" t="n">
-        <v>0.388060363178423</v>
+        <v>0.3880603631784229</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01561196977740413</v>
+        <v>-0.01561196977740415</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.006412528821463706</v>
+        <v>-0.006412528821463641</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08659293549323746</v>
+        <v>0.08659293549323589</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05051133748102973</v>
+        <v>0.05051133748103</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.06250040393662488</v>
+        <v>-0.06250040393662494</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2182433561807272</v>
+        <v>0.2182433561807283</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01309862978560269</v>
+        <v>-0.01309862978560276</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05323699183314209</v>
+        <v>0.0532369918331423</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1106596109239732</v>
+        <v>-0.1106596109239728</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08832317013525137</v>
+        <v>0.08832317013525105</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.139062661330083</v>
+        <v>-0.1390626613300829</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3735904057892383</v>
+        <v>0.3735904057892379</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.03530782072759256</v>
+        <v>-0.03530782072759303</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.09302582620160428</v>
+        <v>-0.09302582620160391</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04582077083093221</v>
+        <v>0.04582077083093256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0180645915071961</v>
+        <v>0.01806459150719603</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09801898391865273</v>
+        <v>0.09801898391865328</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01139988938051311</v>
+        <v>0.0113998893805131</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1657350554243046</v>
+        <v>-0.1657350554243042</v>
       </c>
     </row>
     <row r="6">
@@ -861,73 +861,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0297466427418578</v>
+        <v>0.02974664274185791</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03034932294482378</v>
+        <v>0.03034932294482364</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1652764414883613</v>
+        <v>-0.165276441488361</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01561196977740413</v>
+        <v>-0.01561196977740415</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.107106122654923</v>
+        <v>-0.1071061226549231</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.08532197024002931</v>
+        <v>-0.08532197024002959</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04068859902460688</v>
+        <v>0.04068859902460682</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1379330680931256</v>
+        <v>0.1379330680931269</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007578785007851523</v>
+        <v>0.007578785007851424</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06542619238545337</v>
+        <v>0.06542619238545437</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08322374240379227</v>
+        <v>0.08322374240379259</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2123100299950188</v>
+        <v>0.2123100299950187</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1571983413998661</v>
+        <v>-0.157198341399867</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04313813038796596</v>
+        <v>0.04313813038796618</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1524330778905541</v>
+        <v>-0.1524330778905546</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08196076282604776</v>
+        <v>0.08196076282604801</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02236382664780971</v>
+        <v>0.02236382664780988</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.08231104678970404</v>
+        <v>-0.08231104678970419</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06584459088322181</v>
+        <v>0.06584459088322175</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2751239234336399</v>
+        <v>-0.2751239234336396</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.0431582182206994</v>
+        <v>-0.04315821822069929</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1797298776755977</v>
+        <v>0.1797298776755971</v>
       </c>
     </row>
     <row r="7">
@@ -940,70 +940,70 @@
         <v>-0.1190286884053835</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1252628789284959</v>
+        <v>0.1252628789284969</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07155001752140763</v>
+        <v>0.07155001752140766</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.006412528821463706</v>
+        <v>-0.006412528821463641</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.107106122654923</v>
+        <v>-0.1071061226549231</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0593406423198977</v>
+        <v>-0.05934064231989732</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05961043288644535</v>
+        <v>-0.05961043288644569</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.08777297298871735</v>
+        <v>-0.08777297298871775</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.04903835550798816</v>
+        <v>-0.04903835550798819</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02459278767408066</v>
+        <v>0.02459278767408081</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1531035461420593</v>
+        <v>-0.1531035461420581</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2414084925065061</v>
+        <v>-0.2414084925065049</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1380343086571285</v>
+        <v>0.138034308657128</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04082888771833498</v>
+        <v>0.04082888771833506</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05050445067887077</v>
+        <v>0.05050445067887072</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03672068689980113</v>
+        <v>0.03672068689980165</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05652767820231158</v>
+        <v>0.05652767820231155</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2108007077911593</v>
+        <v>0.2108007077911586</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0003779851587903482</v>
+        <v>-0.0003779851587905582</v>
       </c>
       <c r="V7" t="n">
-        <v>0.007827052947800506</v>
+        <v>0.007827052947800521</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1627897385092042</v>
+        <v>-0.1627897385092054</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.02273158211910532</v>
+        <v>-0.02273158211910513</v>
       </c>
     </row>
     <row r="8">
@@ -1013,73 +1013,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2026558843928797</v>
+        <v>0.202655884392881</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1605040288970766</v>
+        <v>-0.1605040288970776</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08318169954040049</v>
+        <v>0.08318169954040036</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08659293549323746</v>
+        <v>0.08659293549323589</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08532197024002931</v>
+        <v>-0.08532197024002959</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0593406423198977</v>
+        <v>-0.05934064231989732</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3858390944176823</v>
+        <v>0.3858390944176854</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.02128189587790422</v>
+        <v>-0.0212818958779036</v>
       </c>
       <c r="K8" t="n">
-        <v>0.364851863487179</v>
+        <v>0.3648518634871797</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005796626042708256</v>
+        <v>0.005796626042708515</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08983812570135813</v>
+        <v>0.08983812570135824</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002313369359746511</v>
+        <v>0.002313369359745722</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.04188566482089544</v>
+        <v>-0.04188566482089662</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1939715910740801</v>
+        <v>-0.1939715910740814</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09396031763861029</v>
+        <v>0.09396031763861089</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.01770810519939788</v>
+        <v>-0.01770810519939772</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.1783286594669804</v>
+        <v>-0.1783286594669834</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0008141811015932068</v>
+        <v>0.0008141811015911879</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04133583348929708</v>
+        <v>0.04133583348929658</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04488902142332702</v>
+        <v>0.04488902142332674</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.02498507430795349</v>
+        <v>-0.0249850743079543</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.03046516221179131</v>
+        <v>-0.03046516221179166</v>
       </c>
     </row>
     <row r="9">
@@ -1089,73 +1089,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2245508156386252</v>
+        <v>0.224550815638626</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1376283739016654</v>
+        <v>-0.1376283739016656</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08214961853016278</v>
+        <v>-0.08214961853016275</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05051133748102973</v>
+        <v>0.05051133748103</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04068859902460688</v>
+        <v>0.04068859902460682</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05961043288644535</v>
+        <v>-0.05961043288644569</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3858390944176823</v>
+        <v>0.3858390944176854</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04791123610156781</v>
+        <v>0.04791123610156756</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4108511136444567</v>
+        <v>0.4108511136444598</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07859606468777559</v>
+        <v>0.07859606468777634</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1685384507000073</v>
+        <v>0.1685384507000087</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0181289095526884</v>
+        <v>0.01812890955268851</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.08118912521291972</v>
+        <v>-0.08118912521292047</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1711130421645394</v>
+        <v>-0.17111304216454</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.06169314717365956</v>
+        <v>-0.06169314717365944</v>
       </c>
       <c r="R9" t="n">
-        <v>0.07235793016948676</v>
+        <v>0.0723579301694869</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.1255200713617254</v>
+        <v>-0.1255200713617246</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01061002045127811</v>
+        <v>0.01061002045127816</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08530090565676016</v>
+        <v>0.08530090565676056</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.01271782715406218</v>
+        <v>-0.01271782715406228</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01516295350650049</v>
+        <v>0.0151629535065006</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.02340234609153131</v>
+        <v>-0.02340234609153126</v>
       </c>
     </row>
     <row r="10">
@@ -1165,73 +1165,73 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1262112354393794</v>
+        <v>0.1262112354393788</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.09995119463291788</v>
+        <v>-0.09995119463291893</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.05450870907588182</v>
+        <v>-0.05450870907588181</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.06250040393662488</v>
+        <v>-0.06250040393662494</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1379330680931256</v>
+        <v>0.1379330680931269</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08777297298871735</v>
+        <v>-0.08777297298871775</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.02128189587790422</v>
+        <v>-0.0212818958779036</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04791123610156781</v>
+        <v>0.04791123610156756</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01300292436572547</v>
+        <v>0.0130029243657254</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0468984687024172</v>
+        <v>0.046898468702418</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3321985850645596</v>
+        <v>0.3321985850645638</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1581061620943013</v>
+        <v>0.1581061620943031</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.3254839312614994</v>
+        <v>-0.3254839312614998</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02379014056509399</v>
+        <v>0.02379014056509452</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.04030548155315947</v>
+        <v>-0.04030548155315927</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06261811386177125</v>
+        <v>0.0626181138617717</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04143848178682435</v>
+        <v>0.04143848178682476</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.07548968808212364</v>
+        <v>-0.07548968808212447</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04969361470733356</v>
+        <v>0.04969361470733363</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.1577074545228274</v>
+        <v>-0.1577074545228276</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05198085699941064</v>
+        <v>0.05198085699941018</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1393915103169893</v>
+        <v>0.1393915103169885</v>
       </c>
     </row>
     <row r="11">
@@ -1241,73 +1241,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2313157084733515</v>
+        <v>0.2313157084733493</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1871904666735482</v>
+        <v>-0.1871904666735476</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0692160254660913</v>
+        <v>0.06921602546609031</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2182433561807272</v>
+        <v>0.2182433561807283</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007578785007851523</v>
+        <v>0.007578785007851424</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04903835550798816</v>
+        <v>-0.04903835550798819</v>
       </c>
       <c r="H11" t="n">
-        <v>0.364851863487179</v>
+        <v>0.3648518634871797</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4108511136444567</v>
+        <v>0.4108511136444598</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01300292436572547</v>
+        <v>0.0130029243657254</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04487267688995762</v>
+        <v>0.04487267688995786</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1590349781298675</v>
+        <v>0.1590349781298672</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.03668130912945175</v>
+        <v>-0.03668130912945172</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.03719534781059104</v>
+        <v>-0.03719534781059081</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1759587325517744</v>
+        <v>-0.1759587325517742</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.07909752354315083</v>
+        <v>0.07909752354314992</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03514313443629059</v>
+        <v>0.03514313443628987</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.1376065889884829</v>
+        <v>-0.1376065889884823</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01910854071077695</v>
+        <v>0.01910854071077678</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06448934116011781</v>
+        <v>0.06448934116011805</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04573955042364094</v>
+        <v>0.04573955042364081</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01795574181478529</v>
+        <v>0.01795574181478524</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.08828270293360987</v>
+        <v>-0.08828270293361044</v>
       </c>
     </row>
     <row r="12">
@@ -1317,73 +1317,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04756003197657575</v>
+        <v>0.04756003197657607</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02396617107337842</v>
+        <v>-0.02396617107337827</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.09511914312626064</v>
+        <v>-0.09511914312626174</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01309862978560269</v>
+        <v>-0.01309862978560276</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06542619238545337</v>
+        <v>0.06542619238545437</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02459278767408066</v>
+        <v>0.02459278767408081</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005796626042708256</v>
+        <v>0.005796626042708515</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07859606468777559</v>
+        <v>0.07859606468777634</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0468984687024172</v>
+        <v>0.046898468702418</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04487267688995762</v>
+        <v>0.04487267688995786</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06949037328675783</v>
+        <v>0.06949037328675911</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.002696940318514913</v>
+        <v>-0.002696940318514686</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.02846602186209999</v>
+        <v>-0.02846602186209959</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.001568939690182536</v>
+        <v>-0.001568939690182589</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.08542509621379524</v>
+        <v>-0.08542509621379607</v>
       </c>
       <c r="R12" t="n">
-        <v>0.282621215814249</v>
+        <v>0.2826212158142501</v>
       </c>
       <c r="S12" t="n">
-        <v>0.005160206983568499</v>
+        <v>0.005160206983568638</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02915887716481748</v>
+        <v>0.02915887716481764</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3214906772268871</v>
+        <v>0.3214906772268892</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.0383889184678746</v>
+        <v>-0.03838891846787554</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01168549542734058</v>
+        <v>-0.01168549542734097</v>
       </c>
       <c r="X12" t="n">
-        <v>0.009776451250786314</v>
+        <v>0.009776451250786602</v>
       </c>
     </row>
     <row r="13">
@@ -1393,73 +1393,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2102919811249218</v>
+        <v>0.2102919811249216</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1648579111215907</v>
+        <v>-0.164857911121591</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.05692938624942371</v>
+        <v>-0.05692938624942344</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05323699183314209</v>
+        <v>0.0532369918331423</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08322374240379227</v>
+        <v>0.08322374240379259</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1531035461420593</v>
+        <v>-0.1531035461420581</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08983812570135813</v>
+        <v>0.08983812570135824</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1685384507000073</v>
+        <v>0.1685384507000087</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3321985850645596</v>
+        <v>0.3321985850645638</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1590349781298675</v>
+        <v>0.1590349781298672</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06949037328675783</v>
+        <v>0.06949037328675911</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1203791872264821</v>
+        <v>0.1203791872264824</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.2678155709048775</v>
+        <v>-0.2678155709048767</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04622412181742819</v>
+        <v>-0.04622412181742847</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0553165447510057</v>
+        <v>-0.05531654475100593</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05023013538045241</v>
+        <v>0.05023013538045228</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0009726741935630947</v>
+        <v>-0.0009726741935630863</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.05876590724207749</v>
+        <v>-0.05876590724207741</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07623800893332408</v>
+        <v>0.07623800893332454</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.02162910901546531</v>
+        <v>-0.02162910901546537</v>
       </c>
       <c r="W13" t="n">
         <v>0.1007360365083079</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.007930273265069404</v>
+        <v>-0.007930273265069355</v>
       </c>
     </row>
     <row r="14">
@@ -1469,73 +1469,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.122611130067018</v>
+        <v>0.1226111300670176</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06084151847845858</v>
+        <v>-0.06084151847845793</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1480642479747007</v>
+        <v>-0.1480642479746999</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1106596109239732</v>
+        <v>-0.1106596109239728</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2123100299950188</v>
+        <v>0.2123100299950187</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2414084925065061</v>
+        <v>-0.2414084925065049</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002313369359746511</v>
+        <v>0.002313369359745722</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0181289095526884</v>
+        <v>0.01812890955268851</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1581061620943013</v>
+        <v>0.1581061620943031</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.03668130912945175</v>
+        <v>-0.03668130912945172</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.002696940318514913</v>
+        <v>-0.002696940318514686</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1203791872264821</v>
+        <v>0.1203791872264824</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1868294938898063</v>
+        <v>-0.1868294938898052</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04775404509345622</v>
+        <v>0.04775404509345558</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1035072310202461</v>
+        <v>-0.1035072310202472</v>
       </c>
       <c r="R14" t="n">
-        <v>0.002367353861596822</v>
+        <v>0.002367353861596705</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03701548313673066</v>
+        <v>0.03701548313673048</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.1330917800585823</v>
+        <v>-0.1330917800585825</v>
       </c>
       <c r="U14" t="n">
-        <v>0.003235686739289063</v>
+        <v>0.00323568673928929</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.1820342848792459</v>
+        <v>-0.1820342848792453</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02381734373197563</v>
+        <v>0.02381734373197559</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2786310469845365</v>
+        <v>0.2786310469845378</v>
       </c>
     </row>
     <row r="15">
@@ -1545,73 +1545,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2207422494819953</v>
+        <v>-0.2207422494819943</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2183327761228078</v>
+        <v>0.2183327761228087</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05218228190943378</v>
+        <v>0.05218228190943365</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08832317013525137</v>
+        <v>0.08832317013525105</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1571983413998661</v>
+        <v>-0.157198341399867</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1380343086571285</v>
+        <v>0.138034308657128</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.04188566482089544</v>
+        <v>-0.04188566482089662</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08118912521291972</v>
+        <v>-0.08118912521292047</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3254839312614994</v>
+        <v>-0.3254839312614998</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.03719534781059104</v>
+        <v>-0.03719534781059081</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.02846602186209999</v>
+        <v>-0.02846602186209959</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.2678155709048775</v>
+        <v>-0.2678155709048767</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.1868294938898063</v>
+        <v>-0.1868294938898052</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02888763899785843</v>
+        <v>0.02888763899785834</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03260580593903081</v>
+        <v>0.0326058059390307</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.04625887435022447</v>
+        <v>-0.04625887435022392</v>
       </c>
       <c r="S15" t="n">
-        <v>0.03502554273171483</v>
+        <v>0.03502554273171444</v>
       </c>
       <c r="T15" t="n">
-        <v>0.07793639563597106</v>
+        <v>0.07793639563597091</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.02549869646704869</v>
+        <v>-0.02549869646704865</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1938915715453577</v>
+        <v>0.1938915715453576</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.02758302607874383</v>
+        <v>-0.0275830260787438</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.1588490757641834</v>
+        <v>-0.1588490757641826</v>
       </c>
     </row>
     <row r="16">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1375464709496865</v>
+        <v>-0.1375464709496862</v>
       </c>
       <c r="C16" t="n">
         <v>0.2427483138624487</v>
@@ -1630,64 +1630,64 @@
         <v>-0.1067363692665227</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.139062661330083</v>
+        <v>-0.1390626613300829</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04313813038796596</v>
+        <v>0.04313813038796618</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04082888771833498</v>
+        <v>0.04082888771833506</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1939715910740801</v>
+        <v>-0.1939715910740814</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1711130421645394</v>
+        <v>-0.17111304216454</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02379014056509399</v>
+        <v>0.02379014056509452</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1759587325517744</v>
+        <v>-0.1759587325517742</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.001568939690182536</v>
+        <v>-0.001568939690182589</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04622412181742819</v>
+        <v>-0.04622412181742847</v>
       </c>
       <c r="N16" t="n">
-        <v>0.04775404509345622</v>
+        <v>0.04775404509345558</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02888763899785843</v>
+        <v>0.02888763899785834</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.1088731746243381</v>
+        <v>-0.1088731746243394</v>
       </c>
       <c r="R16" t="n">
-        <v>0.005203738704819443</v>
+        <v>0.005203738704819631</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3792943787465995</v>
+        <v>0.3792943787465975</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.03736941766819275</v>
+        <v>-0.03736941766819283</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.03749427716573196</v>
+        <v>-0.03749427716573207</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.07072663486603732</v>
+        <v>-0.0707266348660376</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.03742007536318528</v>
+        <v>-0.03742007536318497</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1271916454228323</v>
+        <v>0.1271916454228331</v>
       </c>
     </row>
     <row r="17">
@@ -1697,73 +1697,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05176435782627458</v>
+        <v>0.05176435782627468</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1596361618078241</v>
+        <v>-0.1596361618078227</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5195342058528954</v>
+        <v>0.5195342058528897</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3735904057892383</v>
+        <v>0.3735904057892379</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1524330778905541</v>
+        <v>-0.1524330778905546</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05050445067887077</v>
+        <v>0.05050445067887072</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09396031763861029</v>
+        <v>0.09396031763861089</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.06169314717365956</v>
+        <v>-0.06169314717365944</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.04030548155315947</v>
+        <v>-0.04030548155315927</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07909752354315083</v>
+        <v>0.07909752354314992</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.08542509621379524</v>
+        <v>-0.08542509621379607</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0553165447510057</v>
+        <v>-0.05531654475100593</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1035072310202461</v>
+        <v>-0.1035072310202472</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03260580593903081</v>
+        <v>0.0326058059390307</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.1088731746243381</v>
+        <v>-0.1088731746243394</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0966960427134694</v>
+        <v>-0.09669604271346899</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0893448261098609</v>
+        <v>-0.08934482610986066</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04150453290124697</v>
+        <v>0.04150453290124732</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.04568729013246205</v>
+        <v>-0.04568729013246223</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1051393112083464</v>
+        <v>0.1051393112083459</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.01816317813946628</v>
+        <v>-0.01816317813946614</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.1245972999285731</v>
+        <v>-0.1245972999285728</v>
       </c>
     </row>
     <row r="18">
@@ -1773,73 +1773,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03710956173119227</v>
+        <v>0.03710956173119224</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0150318740522163</v>
+        <v>-0.01503187405221633</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1084739934421452</v>
+        <v>-0.1084739934421449</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.03530782072759256</v>
+        <v>-0.03530782072759303</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08196076282604776</v>
+        <v>0.08196076282604801</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03672068689980113</v>
+        <v>0.03672068689980165</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01770810519939788</v>
+        <v>-0.01770810519939772</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07235793016948676</v>
+        <v>0.0723579301694869</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06261811386177125</v>
+        <v>0.0626181138617717</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03514313443629059</v>
+        <v>0.03514313443628987</v>
       </c>
       <c r="L18" t="n">
-        <v>0.282621215814249</v>
+        <v>0.2826212158142501</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05023013538045241</v>
+        <v>0.05023013538045228</v>
       </c>
       <c r="N18" t="n">
-        <v>0.002367353861596822</v>
+        <v>0.002367353861596705</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.04625887435022447</v>
+        <v>-0.04625887435022392</v>
       </c>
       <c r="P18" t="n">
-        <v>0.005203738704819443</v>
+        <v>0.005203738704819631</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.0966960427134694</v>
+        <v>-0.09669604271346899</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01117507189100399</v>
+        <v>0.0111750718910043</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02368123063622353</v>
+        <v>0.02368123063622359</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1950832816402315</v>
+        <v>0.1950832816402316</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.06444475401936108</v>
+        <v>-0.06444475401936085</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.03324652121601532</v>
+        <v>-0.0332465212160154</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02932986310085989</v>
+        <v>0.02932986310085975</v>
       </c>
     </row>
     <row r="19">
@@ -1849,73 +1849,73 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1159204596047715</v>
+        <v>-0.1159204596047714</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1861236112966637</v>
+        <v>0.1861236112966645</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.09984426050203649</v>
+        <v>-0.09984426050203463</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.09302582620160428</v>
+        <v>-0.09302582620160391</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02236382664780971</v>
+        <v>0.02236382664780988</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05652767820231158</v>
+        <v>0.05652767820231155</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1783286594669804</v>
+        <v>-0.1783286594669834</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1255200713617254</v>
+        <v>-0.1255200713617246</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04143848178682435</v>
+        <v>0.04143848178682476</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.1376065889884829</v>
+        <v>-0.1376065889884823</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005160206983568499</v>
+        <v>0.005160206983568638</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0009726741935630947</v>
+        <v>-0.0009726741935630863</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03701548313673066</v>
+        <v>0.03701548313673048</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03502554273171483</v>
+        <v>0.03502554273171444</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3792943787465995</v>
+        <v>0.3792943787465975</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0893448261098609</v>
+        <v>-0.08934482610986066</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01117507189100399</v>
+        <v>0.0111750718910043</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.03446394460306818</v>
+        <v>-0.03446394460306829</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.0431447077341092</v>
+        <v>-0.04314470773410906</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.06242609611702888</v>
+        <v>-0.06242609611702832</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.03663605425886324</v>
+        <v>-0.0366360542588628</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1066682453496896</v>
+        <v>0.1066682453496897</v>
       </c>
     </row>
     <row r="20">
@@ -1925,73 +1925,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.06275024351192807</v>
+        <v>-0.06275024351192823</v>
       </c>
       <c r="C20" t="n">
         <v>0.01124583701627893</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06957685788091371</v>
+        <v>0.06957685788091363</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04582077083093221</v>
+        <v>0.04582077083093256</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.08231104678970404</v>
+        <v>-0.08231104678970419</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2108007077911593</v>
+        <v>0.2108007077911586</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008141811015932068</v>
+        <v>0.0008141811015911879</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01061002045127811</v>
+        <v>0.01061002045127816</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.07548968808212364</v>
+        <v>-0.07548968808212447</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01910854071077695</v>
+        <v>0.01910854071077678</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02915887716481748</v>
+        <v>0.02915887716481764</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.05876590724207749</v>
+        <v>-0.05876590724207741</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1330917800585823</v>
+        <v>-0.1330917800585825</v>
       </c>
       <c r="O20" t="n">
-        <v>0.07793639563597106</v>
+        <v>0.07793639563597091</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.03736941766819275</v>
+        <v>-0.03736941766819283</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.04150453290124697</v>
+        <v>0.04150453290124732</v>
       </c>
       <c r="R20" t="n">
-        <v>0.02368123063622353</v>
+        <v>0.02368123063622359</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.03446394460306818</v>
+        <v>-0.03446394460306829</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02039099663717534</v>
+        <v>0.02039099663717557</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1030333644515077</v>
+        <v>0.1030333644515072</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.01795485689383921</v>
+        <v>-0.01795485689383912</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.1270814290086028</v>
+        <v>-0.1270814290086033</v>
       </c>
     </row>
     <row r="21">
@@ -2001,73 +2001,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08545419880612644</v>
+        <v>0.08545419880612527</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06298133404770276</v>
+        <v>-0.06298133404770245</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.04909681797112567</v>
+        <v>-0.04909681797112521</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0180645915071961</v>
+        <v>0.01806459150719603</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06584459088322181</v>
+        <v>0.06584459088322175</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0003779851587903482</v>
+        <v>-0.0003779851587905582</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04133583348929708</v>
+        <v>0.04133583348929658</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08530090565676016</v>
+        <v>0.08530090565676056</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04969361470733356</v>
+        <v>0.04969361470733363</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06448934116011781</v>
+        <v>0.06448934116011805</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3214906772268871</v>
+        <v>0.3214906772268892</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07623800893332408</v>
+        <v>0.07623800893332454</v>
       </c>
       <c r="N21" t="n">
-        <v>0.003235686739289063</v>
+        <v>0.00323568673928929</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.02549869646704869</v>
+        <v>-0.02549869646704865</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.03749427716573196</v>
+        <v>-0.03749427716573207</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.04568729013246205</v>
+        <v>-0.04568729013246223</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1950832816402315</v>
+        <v>0.1950832816402316</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.0431447077341092</v>
+        <v>-0.04314470773410906</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02039099663717534</v>
+        <v>0.02039099663717557</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.02877729142517745</v>
+        <v>-0.02877729142517765</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.02401081643653902</v>
+        <v>-0.02401081643653915</v>
       </c>
       <c r="X21" t="n">
-        <v>0.003520691276448376</v>
+        <v>0.003520691276448477</v>
       </c>
     </row>
     <row r="22">
@@ -2077,73 +2077,73 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02310008747152687</v>
+        <v>-0.02310008747152674</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.05455505983836755</v>
+        <v>-0.05455505983836772</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1229351664332261</v>
+        <v>0.1229351664332254</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09801898391865273</v>
+        <v>0.09801898391865328</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2751239234336399</v>
+        <v>-0.2751239234336396</v>
       </c>
       <c r="G22" t="n">
-        <v>0.007827052947800506</v>
+        <v>0.007827052947800521</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04488902142332702</v>
+        <v>0.04488902142332674</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01271782715406218</v>
+        <v>-0.01271782715406228</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.1577074545228274</v>
+        <v>-0.1577074545228276</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04573955042364094</v>
+        <v>0.04573955042364081</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0383889184678746</v>
+        <v>-0.03838891846787554</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.02162910901546531</v>
+        <v>-0.02162910901546537</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.1820342848792459</v>
+        <v>-0.1820342848792453</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1938915715453577</v>
+        <v>0.1938915715453576</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.07072663486603732</v>
+        <v>-0.0707266348660376</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1051393112083464</v>
+        <v>0.1051393112083459</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.06444475401936108</v>
+        <v>-0.06444475401936085</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.06242609611702888</v>
+        <v>-0.06242609611702832</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1030333644515077</v>
+        <v>0.1030333644515072</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.02877729142517745</v>
+        <v>-0.02877729142517765</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1209861082827491</v>
+        <v>0.1209861082827494</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.3062534593909333</v>
+        <v>-0.3062534593909318</v>
       </c>
     </row>
     <row r="23">
@@ -2153,73 +2153,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04383115353128249</v>
+        <v>0.04383115353128227</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.07105061138148776</v>
+        <v>-0.07105061138148779</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04045223618609573</v>
+        <v>-0.0404522361860957</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01139988938051311</v>
+        <v>0.0113998893805131</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0431582182206994</v>
+        <v>-0.04315821822069929</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1627897385092042</v>
+        <v>-0.1627897385092054</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.02498507430795349</v>
+        <v>-0.0249850743079543</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01516295350650049</v>
+        <v>0.0151629535065006</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05198085699941064</v>
+        <v>0.05198085699941018</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01795574181478529</v>
+        <v>0.01795574181478524</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.01168549542734058</v>
+        <v>-0.01168549542734097</v>
       </c>
       <c r="M23" t="n">
         <v>0.1007360365083079</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02381734373197563</v>
+        <v>0.02381734373197559</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.02758302607874383</v>
+        <v>-0.0275830260787438</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.03742007536318528</v>
+        <v>-0.03742007536318497</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.01816317813946628</v>
+        <v>-0.01816317813946614</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.03324652121601532</v>
+        <v>-0.0332465212160154</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.03663605425886324</v>
+        <v>-0.0366360542588628</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.01795485689383921</v>
+        <v>-0.01795485689383912</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.02401081643653902</v>
+        <v>-0.02401081643653915</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1209861082827491</v>
+        <v>0.1209861082827494</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.09371238801955036</v>
+        <v>-0.09371238801954992</v>
       </c>
     </row>
     <row r="24">
@@ -2229,70 +2229,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.007939740162889689</v>
+        <v>0.007939740162889642</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08587227291144571</v>
+        <v>0.08587227291144699</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1535429869349732</v>
+        <v>-0.1535429869349723</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1657350554243046</v>
+        <v>-0.1657350554243042</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1797298776755977</v>
+        <v>0.1797298776755971</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02273158211910532</v>
+        <v>-0.02273158211910513</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.03046516221179131</v>
+        <v>-0.03046516221179166</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02340234609153131</v>
+        <v>-0.02340234609153126</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1393915103169893</v>
+        <v>0.1393915103169885</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.08828270293360987</v>
+        <v>-0.08828270293361044</v>
       </c>
       <c r="L24" t="n">
-        <v>0.009776451250786314</v>
+        <v>0.009776451250786602</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.007930273265069404</v>
+        <v>-0.007930273265069355</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2786310469845365</v>
+        <v>0.2786310469845378</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.1588490757641834</v>
+        <v>-0.1588490757641826</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1271916454228323</v>
+        <v>0.1271916454228331</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.1245972999285731</v>
+        <v>-0.1245972999285728</v>
       </c>
       <c r="R24" t="n">
-        <v>0.02932986310085989</v>
+        <v>0.02932986310085975</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1066682453496896</v>
+        <v>0.1066682453496897</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.1270814290086028</v>
+        <v>-0.1270814290086033</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003520691276448376</v>
+        <v>0.003520691276448477</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.3062534593909333</v>
+        <v>-0.3062534593909318</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.09371238801955036</v>
+        <v>-0.09371238801954992</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>
